--- a/docs/湛泸一级清洗数据-20190624(1).xlsx
+++ b/docs/湛泸一级清洗数据-20190624(1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magfi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokiluo/work/pipes/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="9840"/>
+    <workbookView xWindow="31900" yWindow="3660" windowWidth="25780" windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$224</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -77,8 +83,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,8 +94,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -121,8 +127,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -132,8 +138,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,8 +173,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,8 +184,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -204,8 +210,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -215,8 +221,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,10 +299,6 @@
     <t>10001</t>
   </si>
   <si>
-    <t>逾期核查_近1年内最大风险得分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Numeric(</t>
     </r>
@@ -304,8 +306,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,8 +317,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,43 +327,91 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>info_risk_overdue.risk_score,info_risk_overdue.data_build_time,info_risk_overdue.create_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_risk_overdue.creat_time-info_risk_overdue.</t>
+    <t>09001</t>
+  </si>
+  <si>
+    <t>他贷核查_近6个月贷款审批申请次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Numeric(3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_risk_other_loan.creat_time,info_risk_other_loan.data_build_time,info_risk_other_loan.reason_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_risk_other_loan.creat_time-info_risk_other_loan.data_build_time&lt;6 months and info_risk_other_loan.result_code='01',then,count info_risk_other_loan.id of record if id_card_no=***</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他贷核查_命中机构数目</t>
+  </si>
+  <si>
+    <r>
+      <t>Numeric(3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ata_build_time&lt;1 year,then,max(info_risk_overdue.risk_score) of record if id_card_no=**</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>09001</t>
-  </si>
-  <si>
-    <t>他贷核查_近6个月贷款审批申请次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_risk_other_loan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amount</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qh_loanee_hit_org_cnt=info_risk_other_loan.amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他贷核查_命中银行机构数</t>
   </si>
   <si>
     <r>
@@ -371,8 +421,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -381,155 +431,75 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>info_risk_other_loan.creat_time,info_risk_other_loan.data_build_time,info_risk_other_loan.reason_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_risk_other_loan.creat_time-info_risk_other_loan.data_build_time&lt;6 months and info_risk_other_loan.result_code='01',then,count info_risk_other_loan.id of record if id_card_no=***</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他贷核查_命中机构数目</t>
-  </si>
-  <si>
-    <r>
-      <t>Numeric(3</t>
+    <t>info_risk_other_loan.bank_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qh_loanee_hit_bank_cnt=info_risk_other_loan.bank_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他贷核查_命中消费金融机构数</t>
+  </si>
+  <si>
+    <t>info_risk_other_loan.consumer_finance_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qh_loanee_hit_finance_cnt=info_risk_other_loan.consumer_finance_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他贷核查_命中p2p或者小贷机构数</t>
+  </si>
+  <si>
+    <t>info_risk_other_loan.p_2_p_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qh_loanee_hit_p2p_cnt=info_risk_other_loan.p_2_p_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他贷核查_近3个月命中机构数</t>
+  </si>
+  <si>
+    <t>info_risk_other_loan.creat_time,info_risk_other_loan.data_build_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_risk_other_loan.creat_time-info_risk_other_loan.data_build_time&lt;3 months,then,count info_risk_other_loan.id of record</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他贷核查_近六个月机构查询次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_risk_other_loan.query_amount_six_month</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qh_loanee_query_mac_cnt_6m=info_risk_other_loan.query_amount_six_month</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13001</t>
+  </si>
+  <si>
+    <t>短信核查_注册总次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Numeric(3)</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_risk_other_loan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amount</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qh_loanee_hit_org_cnt=info_risk_other_loan.amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他贷核查_命中银行机构数</t>
-  </si>
-  <si>
-    <r>
-      <t>Numeric(3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_risk_other_loan.bank_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qh_loanee_hit_bank_cnt=info_risk_other_loan.bank_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他贷核查_命中消费金融机构数</t>
-  </si>
-  <si>
-    <t>info_risk_other_loan.consumer_finance_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qh_loanee_hit_finance_cnt=info_risk_other_loan.consumer_finance_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他贷核查_命中p2p或者小贷机构数</t>
-  </si>
-  <si>
-    <t>info_risk_other_loan.p_2_p_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qh_loanee_hit_p2p_cnt=info_risk_other_loan.p_2_p_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他贷核查_近3个月命中机构数</t>
-  </si>
-  <si>
-    <t>info_risk_other_loan.creat_time,info_risk_other_loan.data_build_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_risk_other_loan.creat_time-info_risk_other_loan.data_build_time&lt;3 months,then,count info_risk_other_loan.id of record</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他贷核查_近六个月机构查询次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_risk_other_loan.query_amount_six_month</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qh_loanee_query_mac_cnt_6m=info_risk_other_loan.query_amount_six_month</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13001</t>
-  </si>
-  <si>
-    <t>短信核查_注册总次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Numeric(3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -760,8 +730,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -901,8 +871,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -938,8 +908,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1053,8 +1023,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1064,8 +1034,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1247,8 +1217,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1258,8 +1228,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1508,8 +1478,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3561,8 +3531,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3572,8 +3542,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3705,8 +3675,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3716,8 +3686,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4017,8 +3987,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4028,8 +3998,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4355,8 +4325,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4366,8 +4336,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4454,8 +4424,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4465,8 +4435,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4604,8 +4574,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4615,7 +4585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4957,8 +4927,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4974,8 +4944,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4992,8 +4962,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5013,8 +4983,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5034,8 +5004,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5045,8 +5015,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5067,8 +5037,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5094,8 +5064,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5123,8 +5093,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5133,10 +5103,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>手机实名状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Numeric(</t>
     </r>
@@ -5144,8 +5110,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5155,8 +5121,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5178,8 +5144,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5216,8 +5182,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5233,8 +5199,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5343,8 +5309,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5383,8 +5349,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5432,8 +5398,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5724,8 +5690,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6161,8 +6127,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6199,8 +6165,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6223,8 +6189,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6234,8 +6200,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6256,7 +6222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6267,8 +6233,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6278,7 +6244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6289,8 +6255,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6300,7 +6266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6311,8 +6277,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6322,7 +6288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6333,8 +6299,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6344,7 +6310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6355,8 +6321,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6366,7 +6332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6377,8 +6343,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6388,7 +6354,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6399,8 +6365,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6410,7 +6376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6440,7 +6406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6451,8 +6417,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6462,7 +6428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8678,8 +8644,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8699,8 +8665,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -10199,10 +10165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ovdu_sco_1y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>oth_loan_hit_org_cnt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10681,17 +10643,32 @@
   <si>
     <t>info_certification.certification_type="ID_NAME_MOBILE",if info_certification.result=true,phone_check=0;if info_certification.result=false,phone_check=1;</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机实名状态</t>
+  </si>
+  <si>
+    <t>ovdu_sco_1y</t>
+  </si>
+  <si>
+    <t>逾期核查_近1年内最大风险得分</t>
+  </si>
+  <si>
+    <t>info_risk_overdue.risk_score,info_risk_overdue.data_build_time,info_risk_overdue.create_time</t>
+  </si>
+  <si>
+    <t>info_risk_overdue.creat_time-info_risk_overdue.data_build_time&lt;1 year,then,max(info_risk_overdue.risk_score) of record if id_card_no=**, risk_score 不为空</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10699,14 +10676,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10721,7 +10698,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10729,7 +10706,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10737,14 +10714,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10780,7 +10757,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10790,6 +10767,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10863,7 +10846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10913,12 +10896,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10975,9 +10952,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11256,28 +11260,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="19" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="62.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="8"/>
+    <col min="6" max="6" width="62.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="8"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="9" max="9" width="15.83203125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11306,8 +11311,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11317,7 +11322,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -11331,11 +11336,11 @@
       <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27">
+    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -11358,11 +11363,11 @@
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27">
+    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -11385,11 +11390,11 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5">
+    <row r="5" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -11412,11 +11417,11 @@
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27">
+    <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -11439,11 +11444,11 @@
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27">
+    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -11466,11 +11471,11 @@
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27">
+    <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -11493,11 +11498,11 @@
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27">
+    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -11520,11 +11525,11 @@
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27">
+    <row r="10" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -11532,7 +11537,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
@@ -11547,5712 +11552,5722 @@
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="76.5">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>460</v>
-      </c>
       <c r="F11" s="12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G11" s="13">
         <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="I11" s="25">
+        <v>543</v>
+      </c>
+      <c r="I11" s="23">
         <v>43635</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
+      <c r="E12" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>905</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="54">
+    <row r="13" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>792</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="23">
+      <c r="I13" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27">
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>786</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>781</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="23">
+      <c r="I14" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27">
+    <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>787</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>782</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27">
+    <row r="16" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>788</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>783</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>789</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>784</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="40.5">
+    <row r="18" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>790</v>
+        <v>44</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>785</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27">
+    <row r="19" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>791</v>
+        <v>44</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>786</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27">
+    <row r="20" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="23">
+      <c r="I20" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="54">
+    <row r="21" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="54">
+    <row r="22" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="23">
+      <c r="I22" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27">
+    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="23">
+      <c r="I23" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="135">
+    <row r="24" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>797</v>
+        <v>69</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>792</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="I24" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="27">
-      <c r="A25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="23">
+      <c r="I25" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="135">
+    <row r="26" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>799</v>
+        <v>69</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>794</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="I26" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="27">
-      <c r="A27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="23">
+      <c r="I27" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27">
+    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="23">
+      <c r="I28" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="135">
+    <row r="29" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="I29" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="27">
-      <c r="A30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="23">
+      <c r="I30" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="135">
+    <row r="31" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="I31" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="40.5">
-      <c r="A32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="23">
+      <c r="I32" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="54">
+    <row r="33" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="23">
+      <c r="I33" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="135">
+    <row r="34" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="23">
+        <v>110</v>
+      </c>
+      <c r="I34" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="27">
+    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="I35" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="27">
-      <c r="A36" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="27">
+    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="23">
+        <v>124</v>
+      </c>
+      <c r="I37" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="40.5">
+    <row r="38" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="27">
+    <row r="39" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="I39" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="27">
-      <c r="A40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="I40" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="27">
-      <c r="A41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="23">
+        <v>137</v>
+      </c>
+      <c r="I41" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="81">
+    <row r="42" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="I42" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="81">
-      <c r="A43" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" s="21">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I43" s="23">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="40.5">
-      <c r="A44" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="F44" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="23">
+      <c r="I44" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="27">
+    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>818</v>
+        <v>145</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>813</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="23">
+      <c r="I45" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="40.5">
+    <row r="46" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>819</v>
+        <v>145</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>814</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="23">
+      <c r="I46" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="40.5">
+    <row r="47" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>820</v>
+        <v>145</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>815</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="23">
+      <c r="I47" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="27">
+    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>821</v>
+        <v>145</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>816</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="23">
+      <c r="I48" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="27">
+    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>822</v>
+        <v>145</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>817</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G49" s="6">
         <v>0</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="23">
+      <c r="I49" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="27">
+    <row r="50" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>823</v>
+        <v>145</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>818</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="23">
+      <c r="I50" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="54">
+    <row r="51" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="23">
+      <c r="I51" s="21">
         <v>43633</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="27">
+    <row r="52" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
       </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="23">
+      <c r="I52" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="40.5">
+    <row r="53" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="23">
+      <c r="I53" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="27">
+    <row r="54" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="23">
+      <c r="I54" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="40.5">
+    <row r="55" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="23">
+      <c r="I55" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="27">
+    <row r="56" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="23">
+      <c r="I56" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="27">
+    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="G57" s="6">
         <v>0</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="23">
+      <c r="I57" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="27">
+    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
       </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="23">
+      <c r="I58" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="40.5">
+    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="23">
+      <c r="I59" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="40.5">
+    <row r="60" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
       </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="23">
+      <c r="I60" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="27">
+    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="G61" s="6">
         <v>0</v>
       </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="23">
+      <c r="I61" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="40.5">
+    <row r="62" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
       </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="23">
+      <c r="I62" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="67.5">
+    <row r="63" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="F63" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="G63" s="6">
         <v>0</v>
       </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="23">
+      <c r="I63" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="67.5">
+    <row r="64" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="F64" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="G64" s="6">
         <v>0</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I64" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I64" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="81">
-      <c r="A65" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I65" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I65" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="54">
-      <c r="A66" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="G66" s="6">
         <v>0</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="23">
+      <c r="I66" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="111.75">
+    <row r="67" spans="1:9" ht="129" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="F67" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G67" s="13">
         <v>0</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="I67" s="23">
+        <v>313</v>
+      </c>
+      <c r="I67" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="111.75">
+    <row r="68" spans="1:9" ht="129" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G68" s="13">
         <v>0</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="I68" s="23">
+        <v>316</v>
+      </c>
+      <c r="I68" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="94.5">
-      <c r="A69" s="27" t="s">
-        <v>185</v>
+    <row r="69" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="F69" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="G69" s="25">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="I69" s="26">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="C70" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="G69" s="27">
+      <c r="D70" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G70" s="25">
         <v>0</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I69" s="28">
+      <c r="H70" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="I70" s="26">
         <v>43640</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="94.5">
-      <c r="A70" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B70" s="14" t="s">
+    <row r="71" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D71" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G71" s="25">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="G70" s="27">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I70" s="28">
+      <c r="I71" s="26">
         <v>43640</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="94.5">
-      <c r="A71" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G71" s="27">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I71" s="28">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="40.5">
+    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="G72" s="6">
         <v>0</v>
       </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="23">
+      <c r="I72" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27">
+    <row r="73" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="G73" s="6">
         <v>0</v>
       </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="23">
+      <c r="I73" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="27">
+    <row r="74" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G74" s="6">
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="23">
+      <c r="I74" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="40.5">
+    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G75" s="6">
         <v>0</v>
       </c>
       <c r="H75" s="6"/>
-      <c r="I75" s="23">
+      <c r="I75" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="27">
+    <row r="76" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G76" s="6">
         <v>0</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="23">
+      <c r="I76" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="27">
+    <row r="77" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G77" s="6">
         <v>0</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="23">
+      <c r="I77" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="27">
+    <row r="78" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G78" s="6">
         <v>0</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="23">
+      <c r="I78" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="40.5">
+    <row r="79" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="G79" s="6">
         <v>0</v>
       </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="23">
+      <c r="I79" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="40.5">
+    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G80" s="6">
         <v>0</v>
       </c>
       <c r="H80" s="6"/>
-      <c r="I80" s="23">
+      <c r="I80" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="27">
+    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="G81" s="6">
         <v>0</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="23">
+      <c r="I81" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="40.5">
+    <row r="82" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="G82" s="6">
         <v>0</v>
       </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="23">
+      <c r="I82" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="54">
+    <row r="83" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="G83" s="6">
         <v>0</v>
       </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="23">
+      <c r="I83" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="54">
+    <row r="84" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="G84" s="6">
         <v>0</v>
       </c>
       <c r="H84" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I84" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I84" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="67.5">
-      <c r="A85" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="G85" s="6">
         <v>0</v>
       </c>
       <c r="H85" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I85" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="I85" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="54">
-      <c r="A86" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="F86" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="G86" s="6">
         <v>0</v>
       </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="23">
+      <c r="I86" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="111.75">
+    <row r="87" spans="1:9" ht="129" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>324</v>
-      </c>
       <c r="F87" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G87" s="13">
         <v>0</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="I87" s="23">
+        <v>323</v>
+      </c>
+      <c r="I87" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="111.75">
+    <row r="88" spans="1:9" ht="129" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G88" s="13">
         <v>0</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="I88" s="23">
+        <v>326</v>
+      </c>
+      <c r="I88" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="94.5">
-      <c r="A89" s="27" t="s">
-        <v>250</v>
+    <row r="89" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="25" t="s">
+        <v>247</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="G89" s="25">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="D89" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" s="5" t="s">
+      <c r="I89" s="26">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="G89" s="27">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5" t="s">
+      <c r="D90" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="I89" s="28">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="94.5">
-      <c r="A90" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="G90" s="27">
+      <c r="G90" s="25">
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="26">
         <v>43640</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="94.5">
-      <c r="A91" s="27" t="s">
-        <v>250</v>
+    <row r="91" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="25" t="s">
+        <v>247</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G91" s="27">
+        <v>540</v>
+      </c>
+      <c r="G91" s="25">
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="I91" s="28">
+        <v>533</v>
+      </c>
+      <c r="I91" s="26">
         <v>43640</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="40.5">
+    <row r="92" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>825</v>
+        <v>327</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>820</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="23">
+      <c r="I92" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="40.5">
+    <row r="93" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="23">
+      <c r="I93" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="40.5">
+    <row r="94" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I94" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I94" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="40.5">
-      <c r="A95" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I95" s="23">
+        <v>336</v>
+      </c>
+      <c r="I95" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="40.5">
+    <row r="96" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I96" s="23">
+        <v>336</v>
+      </c>
+      <c r="I96" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="40.5">
+    <row r="97" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I97" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I97" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="40.5">
-      <c r="A98" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F98" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I98" s="23">
+        <v>336</v>
+      </c>
+      <c r="I98" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="40.5">
+    <row r="99" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I99" s="23">
+        <v>336</v>
+      </c>
+      <c r="I99" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="40.5">
+    <row r="100" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I100" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I100" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="40.5">
-      <c r="A101" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>834</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F101" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I101" s="23">
+        <v>336</v>
+      </c>
+      <c r="I101" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="40.5">
+    <row r="102" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I102" s="23">
+        <v>336</v>
+      </c>
+      <c r="I102" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="40.5">
+    <row r="103" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I103" s="23">
+        <v>336</v>
+      </c>
+      <c r="I103" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="40.5">
+    <row r="104" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="23">
+      <c r="I104" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="40.5">
+    <row r="105" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I105" s="23">
+        <v>336</v>
+      </c>
+      <c r="I105" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="40.5">
+    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I106" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I106" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="40.5">
-      <c r="A107" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>840</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F107" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I107" s="23">
+        <v>336</v>
+      </c>
+      <c r="I107" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="40.5">
+    <row r="108" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I108" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I108" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="40.5">
-      <c r="A109" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F109" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I109" s="23">
+        <v>336</v>
+      </c>
+      <c r="I109" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="40.5">
+    <row r="110" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I110" s="23">
+      <c r="I110" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="54">
+    <row r="111" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I111" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I111" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="40.5">
-      <c r="A112" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>845</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F112" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I112" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I112" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="54">
-      <c r="A113" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>846</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I113" s="23">
+        <v>336</v>
+      </c>
+      <c r="I113" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="54">
+    <row r="114" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I114" s="21">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I114" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="40.5">
-      <c r="A115" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F115" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
-      <c r="I115" s="23">
+      <c r="I115" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="40.5">
+    <row r="116" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
-      <c r="I116" s="23">
+      <c r="I116" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="40.5">
+    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
-      <c r="I117" s="23">
+      <c r="I117" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="40.5">
+    <row r="118" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
-      <c r="I118" s="23">
+      <c r="I118" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="40.5">
+    <row r="119" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
-      <c r="I119" s="23">
+      <c r="I119" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="40.5">
+    <row r="120" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
-      <c r="I120" s="23">
+      <c r="I120" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="40.5">
+    <row r="121" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
-      <c r="I121" s="23">
+      <c r="I121" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="40.5">
+    <row r="122" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
-      <c r="I122" s="23">
+      <c r="I122" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="40.5">
+    <row r="123" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
-      <c r="I123" s="23">
+      <c r="I123" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="40.5">
+    <row r="124" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
-      <c r="I124" s="23">
+      <c r="I124" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="40.5">
+    <row r="125" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
-      <c r="I125" s="23">
+      <c r="I125" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="40.5">
+    <row r="126" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
-      <c r="I126" s="23">
+      <c r="I126" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="40.5">
+    <row r="127" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
-      <c r="I127" s="23">
+      <c r="I127" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="40.5">
+    <row r="128" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
-      <c r="I128" s="23">
+      <c r="I128" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="40.5">
+    <row r="129" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
-      <c r="I129" s="23">
+      <c r="I129" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="40.5">
+    <row r="130" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
-      <c r="I130" s="23">
+      <c r="I130" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="40.5">
+    <row r="131" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
-      <c r="I131" s="23">
+      <c r="I131" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="40.5">
+    <row r="132" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
-      <c r="I132" s="23">
+      <c r="I132" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="40.5">
+    <row r="133" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
-      <c r="I133" s="23">
+      <c r="I133" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="40.5">
+    <row r="134" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
-      <c r="I134" s="23">
+      <c r="I134" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="40.5">
+    <row r="135" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
-      <c r="I135" s="23">
+      <c r="I135" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="40.5">
+    <row r="136" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
-      <c r="I136" s="23">
+      <c r="I136" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="40.5">
+    <row r="137" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
-      <c r="I137" s="23">
+      <c r="I137" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="40.5">
+    <row r="138" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="I138" s="23">
+      <c r="I138" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="40.5">
+    <row r="139" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="I139" s="23">
+      <c r="I139" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="40.5">
+    <row r="140" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-      <c r="I140" s="23">
+      <c r="I140" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="40.5">
+    <row r="141" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
-      <c r="I141" s="23">
+      <c r="I141" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="40.5">
+    <row r="142" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
-      <c r="I142" s="23">
+      <c r="I142" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="40.5">
+    <row r="143" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
-      <c r="I143" s="23">
+      <c r="I143" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="40.5">
+    <row r="144" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I144" s="23">
+        <v>137</v>
+      </c>
+      <c r="I144" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="54">
+    <row r="145" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I145" s="23">
+        <v>137</v>
+      </c>
+      <c r="I145" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="54">
+    <row r="146" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I146" s="23">
+        <v>336</v>
+      </c>
+      <c r="I146" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="51">
+    <row r="147" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B147" s="36" t="s">
-        <v>880</v>
+        <v>327</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>875</v>
       </c>
       <c r="C147" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="E147" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="F147" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="I147" s="23">
+        <v>451</v>
+      </c>
+      <c r="I147" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="51">
+    <row r="148" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B148" s="36" t="s">
-        <v>881</v>
+        <v>327</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>876</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E148" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="F148" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>455</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="I148" s="23">
+        <v>453</v>
+      </c>
+      <c r="I148" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="67.5">
+    <row r="149" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B149" s="14" t="s">
-        <v>882</v>
-      </c>
-      <c r="C149" s="4" t="s">
+      <c r="F149" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I149" s="23">
+      <c r="I149" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="67.5">
+    <row r="150" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E150" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I150" s="23">
+        <v>141</v>
+      </c>
+      <c r="I150" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="67.5">
+    <row r="151" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E151" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B151" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="F151" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I151" s="23">
+      <c r="I151" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="67.5">
+    <row r="152" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>885</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="F152" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I152" s="23">
+      <c r="I152" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="67.5">
+    <row r="153" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I153" s="23">
+      <c r="I153" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="67.5">
+    <row r="154" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E154" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B154" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="F154" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="I154" s="23">
+        <v>473</v>
+      </c>
+      <c r="I154" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="67.5">
+    <row r="155" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I155" s="23">
+      <c r="I155" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="67.5">
+    <row r="156" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I156" s="23">
+        <v>141</v>
+      </c>
+      <c r="I156" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="67.5">
+    <row r="157" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I157" s="23">
+      <c r="I157" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="67.5">
+    <row r="158" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B158" s="14" t="s">
-        <v>891</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="F158" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I158" s="23">
+        <v>141</v>
+      </c>
+      <c r="I158" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="67.5">
+    <row r="159" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="I159" s="23">
+        <v>473</v>
+      </c>
+      <c r="I159" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="67.5">
+    <row r="160" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>893</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="F160" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I160" s="23">
+        <v>141</v>
+      </c>
+      <c r="I160" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="67.5">
+    <row r="161" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I161" s="23">
+        <v>141</v>
+      </c>
+      <c r="I161" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="67.5">
+    <row r="162" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="I162" s="23">
+        <v>473</v>
+      </c>
+      <c r="I162" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="81">
+    <row r="163" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
-      <c r="I163" s="23">
+      <c r="I163" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="81">
+    <row r="164" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
-      <c r="I164" s="23">
+      <c r="I164" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="81">
+    <row r="165" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
-      <c r="I165" s="23">
+      <c r="I165" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="81">
+    <row r="166" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
-      <c r="I166" s="23">
+      <c r="I166" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="81">
+    <row r="167" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
-      <c r="I167" s="23">
+      <c r="I167" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="81">
+    <row r="168" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
-      <c r="I168" s="23">
+      <c r="I168" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="81">
+    <row r="169" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
-      <c r="I169" s="23">
+      <c r="I169" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="81">
+    <row r="170" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
-      <c r="I170" s="23">
+      <c r="I170" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="27">
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="F171" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
-      <c r="I171" s="23">
+      <c r="I171" s="21">
         <v>43635</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="22" t="s">
-        <v>547</v>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="20" t="s">
+        <v>544</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="23">
+      <c r="I172" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="22" t="s">
-        <v>550</v>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="20" t="s">
+        <v>547</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D173" s="26" t="s">
-        <v>564</v>
+        <v>548</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>561</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
-      <c r="I173" s="23">
+      <c r="I173" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="27">
-      <c r="A174" s="22" t="s">
-        <v>547</v>
+    <row r="174" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="20" t="s">
+        <v>544</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="I174" s="23">
+        <v>552</v>
+      </c>
+      <c r="I174" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="22" t="s">
-        <v>547</v>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="20" t="s">
+        <v>544</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
-      <c r="I175" s="23">
+      <c r="I175" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="27">
-      <c r="A176" s="22" t="s">
-        <v>547</v>
+    <row r="176" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="20" t="s">
+        <v>544</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="I176" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="I176" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="27">
-      <c r="A177" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="B177" s="3" t="s">
+      <c r="D177" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I177" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A178" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="B178" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="D178" s="38" t="s">
         <v>563</v>
       </c>
-      <c r="I177" s="23">
+      <c r="E178" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="F178" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="G178" s="40"/>
+      <c r="H178" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="I178" s="42">
         <v>43640</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="40.5">
-      <c r="A178" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="B178" s="35" t="s">
-        <v>904</v>
-      </c>
-      <c r="C178" s="4" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="F178" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="G178" s="6"/>
-      <c r="H178" s="18" t="s">
+      <c r="D179" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="I178" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="27">
-      <c r="A179" s="22" t="s">
+      <c r="E179" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="F179" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="G179" s="6"/>
       <c r="H179" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="I179" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A180" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E180" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="I179" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="94.5">
-      <c r="A180" s="22" t="s">
+      <c r="F180" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="I180" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E181" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I180" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="54">
-      <c r="A181" s="22" t="s">
+      <c r="F181" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E181" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>587</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
       </c>
       <c r="H181" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="I181" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E182" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="I181" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="67.5">
-      <c r="A182" s="22" t="s">
+      <c r="F182" s="11" t="s">
         <v>589</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>593</v>
       </c>
       <c r="G182" s="6">
         <v>0</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="I182" s="23">
+        <v>590</v>
+      </c>
+      <c r="I182" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="54">
-      <c r="A183" s="22" t="s">
-        <v>583</v>
+    <row r="183" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>586</v>
+        <v>71</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>582</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
-      <c r="I183" s="23">
+      <c r="I183" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="81">
-      <c r="A184" s="22" t="s">
-        <v>589</v>
+    <row r="184" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="20" t="s">
+        <v>585</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
-      <c r="I184" s="23">
+      <c r="I184" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="175.5">
+    <row r="185" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F185" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>606</v>
       </c>
       <c r="G185" s="6">
         <v>0</v>
       </c>
       <c r="H185" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="I185" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="I185" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="175.5">
-      <c r="A186" s="4" t="s">
+      <c r="F186" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>612</v>
       </c>
       <c r="G186" s="6">
         <v>0</v>
       </c>
       <c r="H186" s="6"/>
-      <c r="I186" s="23">
+      <c r="I186" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="175.5">
+    <row r="187" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>613</v>
+        <v>598</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>609</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G187" s="6">
         <v>0</v>
       </c>
       <c r="H187" s="6"/>
-      <c r="I187" s="23">
+      <c r="I187" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="175.5">
+    <row r="188" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F188" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>618</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>621</v>
       </c>
       <c r="G188" s="6">
         <v>0</v>
       </c>
       <c r="H188" s="6"/>
-      <c r="I188" s="23">
+      <c r="I188" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="175.5">
+    <row r="189" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B189" s="19" t="s">
-        <v>622</v>
+        <v>604</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>618</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G189" s="6">
         <v>0</v>
       </c>
       <c r="H189" s="6"/>
-      <c r="I189" s="23">
+      <c r="I189" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="175.5">
+    <row r="190" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>626</v>
+        <v>613</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>622</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G190" s="6">
         <v>0</v>
       </c>
       <c r="H190" s="6"/>
-      <c r="I190" s="23">
+      <c r="I190" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="175.5">
+    <row r="191" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>630</v>
+        <v>598</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>626</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G191" s="6">
         <v>0</v>
       </c>
       <c r="H191" s="6"/>
-      <c r="I191" s="23">
+      <c r="I191" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="175.5">
+    <row r="192" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>634</v>
+        <v>598</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>630</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G192" s="6">
         <v>0</v>
       </c>
       <c r="H192" s="6"/>
-      <c r="I192" s="23">
+      <c r="I192" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="175.5">
+    <row r="193" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>638</v>
+        <v>613</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>634</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G193" s="6">
         <v>0</v>
       </c>
       <c r="H193" s="6"/>
-      <c r="I193" s="23">
+      <c r="I193" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="175.5">
+    <row r="194" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>642</v>
+        <v>598</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>638</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G194" s="6">
         <v>0</v>
       </c>
       <c r="H194" s="6"/>
-      <c r="I194" s="23">
+      <c r="I194" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="175.5">
+    <row r="195" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>646</v>
+        <v>604</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G195" s="6">
         <v>0</v>
       </c>
       <c r="H195" s="6"/>
-      <c r="I195" s="23">
+      <c r="I195" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="243">
+    <row r="196" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B196" s="31" t="s">
-        <v>650</v>
-      </c>
-      <c r="C196" s="31" t="s">
-        <v>651</v>
+        <v>613</v>
+      </c>
+      <c r="B196" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>647</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G196" s="6">
         <v>0</v>
       </c>
       <c r="H196" s="6"/>
-      <c r="I196" s="23">
+      <c r="I196" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="243">
+    <row r="197" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B197" s="31" t="s">
-        <v>653</v>
-      </c>
-      <c r="C197" s="31" t="s">
-        <v>654</v>
+        <v>604</v>
+      </c>
+      <c r="B197" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>650</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G197" s="6">
         <v>0</v>
       </c>
       <c r="H197" s="6"/>
-      <c r="I197" s="23">
+      <c r="I197" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="243">
+    <row r="198" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B198" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="C198" s="31" t="s">
-        <v>658</v>
+        <v>598</v>
+      </c>
+      <c r="B198" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>654</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G198" s="6">
         <v>0</v>
       </c>
       <c r="H198" s="6"/>
-      <c r="I198" s="23">
+      <c r="I198" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="201">
+    <row r="199" spans="1:9" ht="252" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E199" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="F199" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="G199" s="27">
+        <v>0</v>
+      </c>
+      <c r="H199" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="I199" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="252" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="D200" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E200" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="D199" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E199" s="15" t="s">
+      <c r="F200" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="G200" s="27">
+        <v>0</v>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="I200" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="126" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="F199" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="G199" s="29">
-        <v>0</v>
-      </c>
-      <c r="H199" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="I199" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="201">
-      <c r="A200" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B200" s="15" t="s">
+      <c r="B201" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="C201" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="D200" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E200" s="15" t="s">
+      <c r="D201" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="F200" s="15" t="s">
-        <v>783</v>
-      </c>
-      <c r="G200" s="29">
-        <v>0</v>
-      </c>
-      <c r="H200" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="I200" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="114.75">
-      <c r="A201" s="4" t="s">
+      <c r="E201" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="F201" s="15" t="s">
         <v>667</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="E201" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="F201" s="15" t="s">
-        <v>671</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="I201" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="126" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="E202" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="F202" s="15" t="s">
         <v>672</v>
-      </c>
-      <c r="I201" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="114.75">
-      <c r="A202" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="F202" s="15" t="s">
-        <v>676</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="I202" s="23">
+        <v>673</v>
+      </c>
+      <c r="I202" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="270">
+    <row r="203" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="I203" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="I203" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="310.5">
-      <c r="A204" s="4" t="s">
+      <c r="E204" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="F204" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I204" s="23">
+        <v>686</v>
+      </c>
+      <c r="I204" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="297">
+    <row r="205" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E205" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>688</v>
-      </c>
       <c r="F205" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G205" s="6"/>
       <c r="H205" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="I205" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="I205" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="283.5">
-      <c r="A206" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>687</v>
-      </c>
       <c r="E206" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I206" s="23">
+        <v>686</v>
+      </c>
+      <c r="I206" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="283.5">
+    <row r="207" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G207" s="6"/>
       <c r="H207" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="I207" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="I207" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="283.5">
-      <c r="A208" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>687</v>
-      </c>
       <c r="E208" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I208" s="23">
+        <v>686</v>
+      </c>
+      <c r="I208" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="283.5">
+    <row r="209" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G209" s="6"/>
       <c r="H209" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I209" s="23">
+        <v>686</v>
+      </c>
+      <c r="I209" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="270">
+    <row r="210" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="E210" s="20" t="s">
-        <v>712</v>
+        <v>683</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>708</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I210" s="23">
+        <v>686</v>
+      </c>
+      <c r="I210" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="283.5">
+    <row r="211" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I211" s="23">
+        <v>686</v>
+      </c>
+      <c r="I211" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="283.5">
+    <row r="212" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E212" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F212" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I212" s="23">
+        <v>686</v>
+      </c>
+      <c r="I212" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="283.5">
+    <row r="213" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I213" s="23">
+        <v>686</v>
+      </c>
+      <c r="I213" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="283.5">
+    <row r="214" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E214" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>727</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="I214" s="23">
+        <v>679</v>
+      </c>
+      <c r="I214" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="297">
+    <row r="215" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F215" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>732</v>
       </c>
       <c r="G215" s="6">
         <v>0</v>
       </c>
       <c r="H215" s="4"/>
-      <c r="I215" s="23">
+      <c r="I215" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="297">
+    <row r="216" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="E216" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E216" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="F216" s="4" t="s">
         <v>731</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>735</v>
       </c>
       <c r="G216" s="6">
         <v>0</v>
       </c>
       <c r="H216" s="4"/>
-      <c r="I216" s="23">
+      <c r="I216" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="178.5">
+    <row r="217" spans="1:9" ht="250" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E217" s="15" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G217" s="13">
         <v>0</v>
       </c>
       <c r="H217" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="I217" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="191" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="E218" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="I217" s="23">
+      <c r="F218" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="G218" s="12"/>
+      <c r="H218" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="I218" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="153">
-      <c r="A218" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B218" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>742</v>
-      </c>
-      <c r="D218" s="15" t="s">
+    <row r="219" spans="1:9" ht="248" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B219" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="E218" s="15" t="s">
+      <c r="C219" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="F218" s="15" t="s">
+      <c r="D219" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="E219" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="G218" s="12"/>
-      <c r="H218" s="21" t="s">
+      <c r="F219" s="15" t="s">
         <v>746</v>
-      </c>
-      <c r="I218" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="204">
-      <c r="A219" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>747</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="D219" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="E219" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="F219" s="15" t="s">
-        <v>750</v>
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="I219" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="E220" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="F220" s="15" t="s">
         <v>751</v>
-      </c>
-      <c r="I219" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="204">
-      <c r="A220" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>752</v>
-      </c>
-      <c r="C220" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D220" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="E220" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="F220" s="15" t="s">
-        <v>755</v>
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="I220" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="I220" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="27">
-      <c r="A221" s="6" t="s">
+      <c r="F221" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="B221" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
-      <c r="I221" s="23">
+      <c r="I221" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="27">
+    <row r="222" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="B222" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F222" s="17" t="s">
         <v>762</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="F222" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
-      <c r="I222" s="23">
+      <c r="I222" s="21">
         <v>43640</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="27">
+    <row r="223" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="B223" s="19" t="s">
-        <v>767</v>
+        <v>753</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>763</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G223" s="6"/>
       <c r="H223" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="I223" s="21">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F224" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="I223" s="23">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="40.5">
-      <c r="A224" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="B224" s="19" t="s">
-        <v>772</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="I224" s="23">
+        <v>772</v>
+      </c>
+      <c r="I224" s="21">
         <v>43640</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I224"/>
+  <autoFilter ref="A1:I224">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="01001"/>
+        <filter val="02001"/>
+        <filter val="05001"/>
+        <filter val="10001"/>
+        <filter val="11001"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/湛泸一级清洗数据-20190624(1).xlsx
+++ b/docs/湛泸一级清洗数据-20190624(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31900" yWindow="3660" windowWidth="25780" windowHeight="15260"/>
+    <workbookView xWindow="39260" yWindow="-1420" windowWidth="25780" windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4559,46 +4559,6 @@
     <t>11001</t>
   </si>
   <si>
-    <t>risk_score_loan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险评分_小贷风险评分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_risk_score.scorecard_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,info_risk_score.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>score</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_risk_score.scorecard_type=0,then,risk_score_loan=info_risk_score.score</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>court_fin_loan_con</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5154,22 +5114,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>phone_on_line_days</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号在网时长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Numeric(3)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>info_on_line_duration.on_line_days</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>phone_on_line_days=info_on_line_duration.on_line_days</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5189,27 +5137,6 @@
       </rPr>
       <t>01001</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hone_on_line_state</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号在网状态</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -8563,29 +8490,9 @@
     <t>07001</t>
   </si>
   <si>
-    <t>lend_score</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>借贷统计_借贷统计分数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>info_loan_stats.channel_score</t>
   </si>
   <si>
-    <t>lend_score=info_loan_stats.channel_score</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lend_fail_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>借贷统计_贷款代扣失败率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Numeric(3，2)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8597,14 +8504,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lend_cha_cnt_12m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>借贷统计_最近12个月扣款交易总次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>info_loan_stats.detail_data</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8617,19 +8516,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lend_chafail_cnt_12m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>借贷统计_最近12个月因余额不足扣款失败总次数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>info_loan_stats.detail_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取info_loan_stats.detail_data里lowBalance_12M_FailCount的值，并求和</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -8658,23 +8549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ase_black</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>若有info_black_list.id_card_no=base_idno，则base_black=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10658,6 +10532,113 @@
   </si>
   <si>
     <t>info_risk_overdue.creat_time-info_risk_overdue.data_build_time&lt;1 year,then,max(info_risk_overdue.risk_score) of record if id_card_no=**, risk_score 不为空</t>
+  </si>
+  <si>
+    <t>风险评分_小贷风险评分</t>
+  </si>
+  <si>
+    <r>
+      <t>info_risk_score.scorecard_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,info_risk_score.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>score</t>
+    </r>
+  </si>
+  <si>
+    <t>info_risk_score.scorecard_type=0,then,risk_score_loan=info_risk_score.score</t>
+  </si>
+  <si>
+    <t>risk_score_loan</t>
+  </si>
+  <si>
+    <t>phone_on_line_days</t>
+  </si>
+  <si>
+    <t>手机号在网时长</t>
+  </si>
+  <si>
+    <t>info_on_line_duration.on_line_days</t>
+  </si>
+  <si>
+    <t>手机号在网状态</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hone_on_line_state</t>
+    </r>
+  </si>
+  <si>
+    <t>借贷统计_借贷统计分数</t>
+  </si>
+  <si>
+    <t>lend_score</t>
+  </si>
+  <si>
+    <t>lend_fail_rate</t>
+  </si>
+  <si>
+    <t>lend_cha_cnt_12m</t>
+  </si>
+  <si>
+    <t>lend_chafail_cnt_12m</t>
+  </si>
+  <si>
+    <t>lend_score=info_loan_stats.channel_score</t>
+  </si>
+  <si>
+    <t>借贷统计_贷款代扣失败率</t>
+  </si>
+  <si>
+    <t>借贷统计_最近12个月扣款交易总次数</t>
+  </si>
+  <si>
+    <t>取info_loan_stats.detail_data里lowBalance_12M_FailCount的值，并求和</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ase_black</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10846,7 +10827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10875,9 +10856,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10977,6 +10955,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11264,8 +11257,8 @@
   <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11312,7 +11305,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11333,10 +11326,10 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -11363,7 +11356,7 @@
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11390,7 +11383,7 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11417,7 +11410,7 @@
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11444,7 +11437,7 @@
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11471,7 +11464,7 @@
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11498,7 +11491,7 @@
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11525,7 +11518,7 @@
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11552,63 +11545,63 @@
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>43633</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="H11" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="I11" s="22">
         <v>43635</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:9" s="42" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>902</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>903</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>884</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>904</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>905</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>886</v>
+      </c>
+      <c r="G12" s="39">
         <v>0</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="21">
+      <c r="H12" s="39"/>
+      <c r="I12" s="41">
         <v>43633</v>
       </c>
     </row>
@@ -11616,8 +11609,8 @@
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>787</v>
+      <c r="B13" s="29" t="s">
+        <v>768</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>45</v>
@@ -11635,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11643,8 +11636,8 @@
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>781</v>
+      <c r="B14" s="30" t="s">
+        <v>762</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>49</v>
@@ -11662,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11670,8 +11663,8 @@
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>782</v>
+      <c r="B15" s="30" t="s">
+        <v>763</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>53</v>
@@ -11689,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11697,8 +11690,8 @@
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>783</v>
+      <c r="B16" s="30" t="s">
+        <v>764</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>57</v>
@@ -11716,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11724,8 +11717,8 @@
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>784</v>
+      <c r="B17" s="30" t="s">
+        <v>765</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>60</v>
@@ -11743,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11751,8 +11744,8 @@
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>785</v>
+      <c r="B18" s="31" t="s">
+        <v>766</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>63</v>
@@ -11770,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11778,8 +11771,8 @@
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>786</v>
+      <c r="B19" s="30" t="s">
+        <v>767</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>66</v>
@@ -11797,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11805,8 +11798,8 @@
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>788</v>
+      <c r="B20" s="13" t="s">
+        <v>769</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>70</v>
@@ -11822,7 +11815,7 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11830,8 +11823,8 @@
       <c r="A21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>789</v>
+      <c r="B21" s="13" t="s">
+        <v>770</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>74</v>
@@ -11849,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11857,8 +11850,8 @@
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>790</v>
+      <c r="B22" s="13" t="s">
+        <v>771</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>77</v>
@@ -11876,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11884,8 +11877,8 @@
       <c r="A23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>791</v>
+      <c r="B23" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>80</v>
@@ -11903,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="21">
+      <c r="I23" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11911,8 +11904,8 @@
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>792</v>
+      <c r="B24" s="29" t="s">
+        <v>773</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>83</v>
@@ -11932,7 +11925,7 @@
       <c r="H24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11940,8 +11933,8 @@
       <c r="A25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>793</v>
+      <c r="B25" s="13" t="s">
+        <v>774</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>87</v>
@@ -11959,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11967,8 +11960,8 @@
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>794</v>
+      <c r="B26" s="29" t="s">
+        <v>775</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>90</v>
@@ -11988,7 +11981,7 @@
       <c r="H26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -11996,8 +11989,8 @@
       <c r="A27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>795</v>
+      <c r="B27" s="13" t="s">
+        <v>776</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>94</v>
@@ -12015,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="21">
+      <c r="I27" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12023,8 +12016,8 @@
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>796</v>
+      <c r="B28" s="13" t="s">
+        <v>777</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>97</v>
@@ -12042,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="21">
+      <c r="I28" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12050,8 +12043,8 @@
       <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>797</v>
+      <c r="B29" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>100</v>
@@ -12071,7 +12064,7 @@
       <c r="H29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12079,8 +12072,8 @@
       <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>798</v>
+      <c r="B30" s="13" t="s">
+        <v>779</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>104</v>
@@ -12098,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="21">
+      <c r="I30" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12106,8 +12099,8 @@
       <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>799</v>
+      <c r="B31" s="13" t="s">
+        <v>780</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>107</v>
@@ -12127,7 +12120,7 @@
       <c r="H31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12135,8 +12128,8 @@
       <c r="A32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>800</v>
+      <c r="B32" s="13" t="s">
+        <v>781</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>111</v>
@@ -12154,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="21">
+      <c r="I32" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12162,8 +12155,8 @@
       <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>801</v>
+      <c r="B33" s="13" t="s">
+        <v>782</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>114</v>
@@ -12181,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12189,8 +12182,8 @@
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>802</v>
+      <c r="B34" s="13" t="s">
+        <v>783</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>117</v>
@@ -12210,7 +12203,7 @@
       <c r="H34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12218,8 +12211,8 @@
       <c r="A35" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>803</v>
+      <c r="B35" s="13" t="s">
+        <v>784</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>121</v>
@@ -12237,7 +12230,7 @@
       <c r="H35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12245,8 +12238,8 @@
       <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>804</v>
+      <c r="B36" s="13" t="s">
+        <v>785</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>125</v>
@@ -12264,7 +12257,7 @@
       <c r="H36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12272,8 +12265,8 @@
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>805</v>
+      <c r="B37" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>128</v>
@@ -12291,7 +12284,7 @@
       <c r="H37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12299,8 +12292,8 @@
       <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>806</v>
+      <c r="B38" s="13" t="s">
+        <v>787</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>131</v>
@@ -12318,7 +12311,7 @@
       <c r="H38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12326,8 +12319,8 @@
       <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>807</v>
+      <c r="B39" s="13" t="s">
+        <v>788</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>134</v>
@@ -12345,7 +12338,7 @@
       <c r="H39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12353,8 +12346,8 @@
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>808</v>
+      <c r="B40" s="13" t="s">
+        <v>789</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>138</v>
@@ -12372,7 +12365,7 @@
       <c r="H40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12380,8 +12373,8 @@
       <c r="A41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>809</v>
+      <c r="B41" s="13" t="s">
+        <v>790</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>142</v>
@@ -12399,7 +12392,7 @@
       <c r="H41" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12407,8 +12400,8 @@
       <c r="A42" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>810</v>
+      <c r="B42" s="13" t="s">
+        <v>791</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>146</v>
@@ -12426,7 +12419,7 @@
       <c r="H42" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12434,8 +12427,8 @@
       <c r="A43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>811</v>
+      <c r="B43" s="13" t="s">
+        <v>792</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>151</v>
@@ -12453,7 +12446,7 @@
       <c r="H43" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12461,8 +12454,8 @@
       <c r="A44" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>812</v>
+      <c r="B44" s="13" t="s">
+        <v>793</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>155</v>
@@ -12478,7 +12471,7 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="21">
+      <c r="I44" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12486,8 +12479,8 @@
       <c r="A45" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>813</v>
+      <c r="B45" s="30" t="s">
+        <v>794</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>159</v>
@@ -12503,7 +12496,7 @@
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="21">
+      <c r="I45" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12511,8 +12504,8 @@
       <c r="A46" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>814</v>
+      <c r="B46" s="30" t="s">
+        <v>795</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>162</v>
@@ -12528,7 +12521,7 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="21">
+      <c r="I46" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12536,8 +12529,8 @@
       <c r="A47" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>815</v>
+      <c r="B47" s="30" t="s">
+        <v>796</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>166</v>
@@ -12553,7 +12546,7 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="21">
+      <c r="I47" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12561,8 +12554,8 @@
       <c r="A48" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>816</v>
+      <c r="B48" s="30" t="s">
+        <v>797</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>170</v>
@@ -12578,7 +12571,7 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="21">
+      <c r="I48" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12586,8 +12579,8 @@
       <c r="A49" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>817</v>
+      <c r="B49" s="30" t="s">
+        <v>798</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>173</v>
@@ -12605,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="21">
+      <c r="I49" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12613,10 +12606,10 @@
       <c r="A50" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>818</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -12632,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="21">
+      <c r="I50" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12640,10 +12633,10 @@
       <c r="A51" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -12659,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="21">
+      <c r="I51" s="20">
         <v>43633</v>
       </c>
     </row>
@@ -12686,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="21">
+      <c r="I52" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12713,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="21">
+      <c r="I53" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12740,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="21">
+      <c r="I54" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12767,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="21">
+      <c r="I55" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12794,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="21">
+      <c r="I56" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12821,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="21">
+      <c r="I57" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12848,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="21">
+      <c r="I58" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12875,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="21">
+      <c r="I59" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12902,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="21">
+      <c r="I60" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12929,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="21">
+      <c r="I61" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12956,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="21">
+      <c r="I62" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -12983,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="21">
+      <c r="I63" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13012,7 +13005,7 @@
       <c r="H64" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13041,7 +13034,7 @@
       <c r="H65" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13068,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="21">
+      <c r="I66" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13085,19 +13078,19 @@
       <c r="D67" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="12">
         <v>0</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13114,106 +13107,106 @@
       <c r="D68" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="12">
         <v>0</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="20">
         <v>43635</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="G69" s="24">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="I69" s="25">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="C70" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="D70" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G70" s="24">
         <v>0</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H70" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="I70" s="25">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="I69" s="26">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="D71" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="F70" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G71" s="24">
         <v>0</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="I70" s="26">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="G71" s="25">
-        <v>0</v>
-      </c>
       <c r="H71" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="I71" s="26">
+        <v>517</v>
+      </c>
+      <c r="I71" s="25">
         <v>43640</v>
       </c>
     </row>
@@ -13240,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="21">
+      <c r="I72" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13267,7 +13260,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="21">
+      <c r="I73" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13294,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="21">
+      <c r="I74" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13321,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="6"/>
-      <c r="I75" s="21">
+      <c r="I75" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13348,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="21">
+      <c r="I76" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13375,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="21">
+      <c r="I77" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13402,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="21">
+      <c r="I78" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13429,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="21">
+      <c r="I79" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13456,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="6"/>
-      <c r="I80" s="21">
+      <c r="I80" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13483,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="21">
+      <c r="I81" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13510,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="21">
+      <c r="I82" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13537,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="21">
+      <c r="I83" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13566,7 +13559,7 @@
       <c r="H84" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13595,7 +13588,7 @@
       <c r="H85" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I85" s="21">
+      <c r="I85" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13622,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="21">
+      <c r="I86" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13630,28 +13623,28 @@
       <c r="A87" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="12">
         <v>0</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13659,115 +13652,115 @@
       <c r="A88" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="12">
         <v>0</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="20">
         <v>43635</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>247</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G89" s="24">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="I89" s="25">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="C90" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D90" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="F89" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="G89" s="25">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="I89" s="26">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="G90" s="25">
+      <c r="G90" s="24">
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="26">
+      <c r="I90" s="25">
         <v>43640</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="24" t="s">
         <v>247</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="D91" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>147</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="G91" s="25">
+        <v>536</v>
+      </c>
+      <c r="G91" s="24">
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="I91" s="26">
+        <v>529</v>
+      </c>
+      <c r="I91" s="25">
         <v>43640</v>
       </c>
     </row>
@@ -13775,8 +13768,8 @@
       <c r="A92" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B92" s="33" t="s">
-        <v>820</v>
+      <c r="B92" s="32" t="s">
+        <v>801</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>328</v>
@@ -13794,7 +13787,7 @@
       <c r="H92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13802,8 +13795,8 @@
       <c r="A93" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>821</v>
+      <c r="B93" s="13" t="s">
+        <v>802</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>331</v>
@@ -13821,7 +13814,7 @@
       <c r="H93" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13829,8 +13822,8 @@
       <c r="A94" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B94" s="14" t="s">
-        <v>822</v>
+      <c r="B94" s="13" t="s">
+        <v>803</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>334</v>
@@ -13848,7 +13841,7 @@
       <c r="H94" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I94" s="21">
+      <c r="I94" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13856,8 +13849,8 @@
       <c r="A95" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>823</v>
+      <c r="B95" s="13" t="s">
+        <v>804</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>337</v>
@@ -13875,7 +13868,7 @@
       <c r="H95" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13883,8 +13876,8 @@
       <c r="A96" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>824</v>
+      <c r="B96" s="13" t="s">
+        <v>805</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>341</v>
@@ -13902,7 +13895,7 @@
       <c r="H96" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I96" s="21">
+      <c r="I96" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13910,8 +13903,8 @@
       <c r="A97" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>825</v>
+      <c r="B97" s="13" t="s">
+        <v>806</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>343</v>
@@ -13929,7 +13922,7 @@
       <c r="H97" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I97" s="21">
+      <c r="I97" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13937,8 +13930,8 @@
       <c r="A98" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>826</v>
+      <c r="B98" s="13" t="s">
+        <v>807</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>345</v>
@@ -13956,7 +13949,7 @@
       <c r="H98" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I98" s="21">
+      <c r="I98" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13964,8 +13957,8 @@
       <c r="A99" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>827</v>
+      <c r="B99" s="13" t="s">
+        <v>808</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>347</v>
@@ -13983,7 +13976,7 @@
       <c r="H99" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I99" s="21">
+      <c r="I99" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -13991,8 +13984,8 @@
       <c r="A100" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>828</v>
+      <c r="B100" s="13" t="s">
+        <v>809</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>349</v>
@@ -14010,7 +14003,7 @@
       <c r="H100" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I100" s="21">
+      <c r="I100" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14018,8 +14011,8 @@
       <c r="A101" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>829</v>
+      <c r="B101" s="13" t="s">
+        <v>810</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>351</v>
@@ -14037,7 +14030,7 @@
       <c r="H101" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I101" s="21">
+      <c r="I101" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14045,8 +14038,8 @@
       <c r="A102" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>830</v>
+      <c r="B102" s="13" t="s">
+        <v>811</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>353</v>
@@ -14064,7 +14057,7 @@
       <c r="H102" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I102" s="21">
+      <c r="I102" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14072,8 +14065,8 @@
       <c r="A103" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>831</v>
+      <c r="B103" s="13" t="s">
+        <v>812</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>355</v>
@@ -14091,7 +14084,7 @@
       <c r="H103" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I103" s="21">
+      <c r="I103" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14099,8 +14092,8 @@
       <c r="A104" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>832</v>
+      <c r="B104" s="13" t="s">
+        <v>813</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>357</v>
@@ -14118,7 +14111,7 @@
       <c r="H104" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="21">
+      <c r="I104" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14126,8 +14119,8 @@
       <c r="A105" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>833</v>
+      <c r="B105" s="13" t="s">
+        <v>814</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>359</v>
@@ -14145,7 +14138,7 @@
       <c r="H105" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I105" s="21">
+      <c r="I105" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14153,8 +14146,8 @@
       <c r="A106" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>834</v>
+      <c r="B106" s="13" t="s">
+        <v>815</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>361</v>
@@ -14172,7 +14165,7 @@
       <c r="H106" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I106" s="21">
+      <c r="I106" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14180,8 +14173,8 @@
       <c r="A107" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>835</v>
+      <c r="B107" s="13" t="s">
+        <v>816</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>363</v>
@@ -14199,7 +14192,7 @@
       <c r="H107" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I107" s="21">
+      <c r="I107" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14207,8 +14200,8 @@
       <c r="A108" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B108" s="14" t="s">
-        <v>836</v>
+      <c r="B108" s="13" t="s">
+        <v>817</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>365</v>
@@ -14226,7 +14219,7 @@
       <c r="H108" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I108" s="21">
+      <c r="I108" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14234,8 +14227,8 @@
       <c r="A109" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B109" s="14" t="s">
-        <v>837</v>
+      <c r="B109" s="13" t="s">
+        <v>818</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>367</v>
@@ -14253,7 +14246,7 @@
       <c r="H109" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I109" s="21">
+      <c r="I109" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14261,8 +14254,8 @@
       <c r="A110" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B110" s="14" t="s">
-        <v>838</v>
+      <c r="B110" s="13" t="s">
+        <v>819</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>370</v>
@@ -14280,7 +14273,7 @@
       <c r="H110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I110" s="21">
+      <c r="I110" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14288,8 +14281,8 @@
       <c r="A111" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>839</v>
+      <c r="B111" s="13" t="s">
+        <v>820</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>372</v>
@@ -14307,7 +14300,7 @@
       <c r="H111" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I111" s="21">
+      <c r="I111" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14315,8 +14308,8 @@
       <c r="A112" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="14" t="s">
-        <v>840</v>
+      <c r="B112" s="13" t="s">
+        <v>821</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>374</v>
@@ -14334,7 +14327,7 @@
       <c r="H112" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I112" s="21">
+      <c r="I112" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14342,8 +14335,8 @@
       <c r="A113" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>841</v>
+      <c r="B113" s="13" t="s">
+        <v>822</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>376</v>
@@ -14361,7 +14354,7 @@
       <c r="H113" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I113" s="21">
+      <c r="I113" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14369,8 +14362,8 @@
       <c r="A114" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B114" s="14" t="s">
-        <v>842</v>
+      <c r="B114" s="13" t="s">
+        <v>823</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>378</v>
@@ -14388,7 +14381,7 @@
       <c r="H114" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I114" s="21">
+      <c r="I114" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14396,8 +14389,8 @@
       <c r="A115" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B115" s="14" t="s">
-        <v>843</v>
+      <c r="B115" s="13" t="s">
+        <v>824</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>380</v>
@@ -14413,7 +14406,7 @@
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
-      <c r="I115" s="21">
+      <c r="I115" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14421,8 +14414,8 @@
       <c r="A116" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B116" s="14" t="s">
-        <v>844</v>
+      <c r="B116" s="13" t="s">
+        <v>825</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>382</v>
@@ -14438,7 +14431,7 @@
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
-      <c r="I116" s="21">
+      <c r="I116" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14446,8 +14439,8 @@
       <c r="A117" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>845</v>
+      <c r="B117" s="13" t="s">
+        <v>826</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>384</v>
@@ -14463,7 +14456,7 @@
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
-      <c r="I117" s="21">
+      <c r="I117" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14471,8 +14464,8 @@
       <c r="A118" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>846</v>
+      <c r="B118" s="13" t="s">
+        <v>827</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>386</v>
@@ -14488,7 +14481,7 @@
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
-      <c r="I118" s="21">
+      <c r="I118" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14496,8 +14489,8 @@
       <c r="A119" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>847</v>
+      <c r="B119" s="13" t="s">
+        <v>828</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>388</v>
@@ -14513,7 +14506,7 @@
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
-      <c r="I119" s="21">
+      <c r="I119" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14521,8 +14514,8 @@
       <c r="A120" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>848</v>
+      <c r="B120" s="13" t="s">
+        <v>829</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>390</v>
@@ -14538,7 +14531,7 @@
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
-      <c r="I120" s="21">
+      <c r="I120" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14546,8 +14539,8 @@
       <c r="A121" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>849</v>
+      <c r="B121" s="13" t="s">
+        <v>830</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>393</v>
@@ -14563,7 +14556,7 @@
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
-      <c r="I121" s="21">
+      <c r="I121" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14571,8 +14564,8 @@
       <c r="A122" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>850</v>
+      <c r="B122" s="13" t="s">
+        <v>831</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>395</v>
@@ -14588,7 +14581,7 @@
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
-      <c r="I122" s="21">
+      <c r="I122" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14596,8 +14589,8 @@
       <c r="A123" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>851</v>
+      <c r="B123" s="13" t="s">
+        <v>832</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>397</v>
@@ -14613,7 +14606,7 @@
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
-      <c r="I123" s="21">
+      <c r="I123" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14621,8 +14614,8 @@
       <c r="A124" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>852</v>
+      <c r="B124" s="13" t="s">
+        <v>833</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>399</v>
@@ -14638,7 +14631,7 @@
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
-      <c r="I124" s="21">
+      <c r="I124" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14646,8 +14639,8 @@
       <c r="A125" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>853</v>
+      <c r="B125" s="13" t="s">
+        <v>834</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>401</v>
@@ -14663,7 +14656,7 @@
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
-      <c r="I125" s="21">
+      <c r="I125" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14671,8 +14664,8 @@
       <c r="A126" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>854</v>
+      <c r="B126" s="13" t="s">
+        <v>835</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>403</v>
@@ -14688,7 +14681,7 @@
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
-      <c r="I126" s="21">
+      <c r="I126" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14696,8 +14689,8 @@
       <c r="A127" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B127" s="14" t="s">
-        <v>855</v>
+      <c r="B127" s="13" t="s">
+        <v>836</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>405</v>
@@ -14713,7 +14706,7 @@
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
-      <c r="I127" s="21">
+      <c r="I127" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14721,8 +14714,8 @@
       <c r="A128" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B128" s="14" t="s">
-        <v>856</v>
+      <c r="B128" s="13" t="s">
+        <v>837</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>407</v>
@@ -14738,7 +14731,7 @@
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
-      <c r="I128" s="21">
+      <c r="I128" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14746,8 +14739,8 @@
       <c r="A129" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>857</v>
+      <c r="B129" s="13" t="s">
+        <v>838</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>409</v>
@@ -14763,7 +14756,7 @@
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
-      <c r="I129" s="21">
+      <c r="I129" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14771,8 +14764,8 @@
       <c r="A130" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>859</v>
+      <c r="B130" s="13" t="s">
+        <v>840</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>411</v>
@@ -14788,7 +14781,7 @@
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
-      <c r="I130" s="21">
+      <c r="I130" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14796,8 +14789,8 @@
       <c r="A131" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>858</v>
+      <c r="B131" s="13" t="s">
+        <v>839</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>413</v>
@@ -14813,7 +14806,7 @@
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
-      <c r="I131" s="21">
+      <c r="I131" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14821,8 +14814,8 @@
       <c r="A132" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>860</v>
+      <c r="B132" s="13" t="s">
+        <v>841</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>415</v>
@@ -14838,7 +14831,7 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
-      <c r="I132" s="21">
+      <c r="I132" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14846,8 +14839,8 @@
       <c r="A133" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>861</v>
+      <c r="B133" s="13" t="s">
+        <v>842</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>417</v>
@@ -14863,7 +14856,7 @@
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
-      <c r="I133" s="21">
+      <c r="I133" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14871,8 +14864,8 @@
       <c r="A134" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B134" s="14" t="s">
-        <v>862</v>
+      <c r="B134" s="13" t="s">
+        <v>843</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>419</v>
@@ -14888,7 +14881,7 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
-      <c r="I134" s="21">
+      <c r="I134" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14896,8 +14889,8 @@
       <c r="A135" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B135" s="14" t="s">
-        <v>863</v>
+      <c r="B135" s="13" t="s">
+        <v>844</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>421</v>
@@ -14913,7 +14906,7 @@
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
-      <c r="I135" s="21">
+      <c r="I135" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14921,8 +14914,8 @@
       <c r="A136" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>864</v>
+      <c r="B136" s="13" t="s">
+        <v>845</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>423</v>
@@ -14938,7 +14931,7 @@
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
-      <c r="I136" s="21">
+      <c r="I136" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14946,8 +14939,8 @@
       <c r="A137" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>865</v>
+      <c r="B137" s="13" t="s">
+        <v>846</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>425</v>
@@ -14963,7 +14956,7 @@
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
-      <c r="I137" s="21">
+      <c r="I137" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14971,8 +14964,8 @@
       <c r="A138" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>866</v>
+      <c r="B138" s="13" t="s">
+        <v>847</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>427</v>
@@ -14988,7 +14981,7 @@
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="I138" s="21">
+      <c r="I138" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -14996,8 +14989,8 @@
       <c r="A139" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>868</v>
+      <c r="B139" s="13" t="s">
+        <v>849</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>429</v>
@@ -15013,7 +15006,7 @@
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="I139" s="21">
+      <c r="I139" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15021,8 +15014,8 @@
       <c r="A140" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>867</v>
+      <c r="B140" s="13" t="s">
+        <v>848</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>431</v>
@@ -15038,7 +15031,7 @@
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-      <c r="I140" s="21">
+      <c r="I140" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15046,8 +15039,8 @@
       <c r="A141" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>869</v>
+      <c r="B141" s="13" t="s">
+        <v>850</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>433</v>
@@ -15063,7 +15056,7 @@
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
-      <c r="I141" s="21">
+      <c r="I141" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15071,8 +15064,8 @@
       <c r="A142" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>870</v>
+      <c r="B142" s="13" t="s">
+        <v>851</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>435</v>
@@ -15088,7 +15081,7 @@
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
-      <c r="I142" s="21">
+      <c r="I142" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15096,8 +15089,8 @@
       <c r="A143" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="14" t="s">
-        <v>871</v>
+      <c r="B143" s="13" t="s">
+        <v>852</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>437</v>
@@ -15113,7 +15106,7 @@
       </c>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
-      <c r="I143" s="21">
+      <c r="I143" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15121,8 +15114,8 @@
       <c r="A144" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>872</v>
+      <c r="B144" s="13" t="s">
+        <v>853</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>439</v>
@@ -15140,7 +15133,7 @@
       <c r="H144" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I144" s="21">
+      <c r="I144" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15148,8 +15141,8 @@
       <c r="A145" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>873</v>
+      <c r="B145" s="13" t="s">
+        <v>854</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>442</v>
@@ -15167,7 +15160,7 @@
       <c r="H145" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I145" s="21">
+      <c r="I145" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15175,8 +15168,8 @@
       <c r="A146" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B146" s="14" t="s">
-        <v>874</v>
+      <c r="B146" s="13" t="s">
+        <v>855</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>444</v>
@@ -15194,7 +15187,7 @@
       <c r="H146" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I146" s="21">
+      <c r="I146" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15202,26 +15195,26 @@
       <c r="A147" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B147" s="34" t="s">
-        <v>875</v>
-      </c>
-      <c r="C147" s="12" t="s">
+      <c r="B147" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F147" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
+      <c r="G147" s="11"/>
+      <c r="H147" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="I147" s="21">
+      <c r="I147" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15229,26 +15222,26 @@
       <c r="A148" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B148" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="C148" s="12" t="s">
+      <c r="B148" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E148" s="12" t="s">
+      <c r="E148" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="F148" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12" t="s">
+      <c r="G148" s="11"/>
+      <c r="H148" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="I148" s="21">
+      <c r="I148" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15256,8 +15249,8 @@
       <c r="A149" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B149" s="14" t="s">
-        <v>877</v>
+      <c r="B149" s="13" t="s">
+        <v>858</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>459</v>
@@ -15275,7 +15268,7 @@
       <c r="H149" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I149" s="21">
+      <c r="I149" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15283,8 +15276,8 @@
       <c r="A150" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B150" s="14" t="s">
-        <v>878</v>
+      <c r="B150" s="13" t="s">
+        <v>859</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>463</v>
@@ -15302,7 +15295,7 @@
       <c r="H150" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I150" s="21">
+      <c r="I150" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15310,8 +15303,8 @@
       <c r="A151" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B151" s="14" t="s">
-        <v>879</v>
+      <c r="B151" s="13" t="s">
+        <v>860</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>465</v>
@@ -15329,7 +15322,7 @@
       <c r="H151" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I151" s="21">
+      <c r="I151" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15337,8 +15330,8 @@
       <c r="A152" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>880</v>
+      <c r="B152" s="13" t="s">
+        <v>861</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>467</v>
@@ -15356,7 +15349,7 @@
       <c r="H152" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I152" s="21">
+      <c r="I152" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15364,8 +15357,8 @@
       <c r="A153" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B153" s="14" t="s">
-        <v>881</v>
+      <c r="B153" s="13" t="s">
+        <v>862</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>469</v>
@@ -15383,7 +15376,7 @@
       <c r="H153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I153" s="21">
+      <c r="I153" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15391,8 +15384,8 @@
       <c r="A154" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B154" s="14" t="s">
-        <v>884</v>
+      <c r="B154" s="13" t="s">
+        <v>865</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>471</v>
@@ -15410,7 +15403,7 @@
       <c r="H154" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="I154" s="21">
+      <c r="I154" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15418,8 +15411,8 @@
       <c r="A155" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B155" s="14" t="s">
-        <v>885</v>
+      <c r="B155" s="13" t="s">
+        <v>866</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>474</v>
@@ -15437,7 +15430,7 @@
       <c r="H155" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I155" s="21">
+      <c r="I155" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15445,8 +15438,8 @@
       <c r="A156" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B156" s="14" t="s">
-        <v>882</v>
+      <c r="B156" s="13" t="s">
+        <v>863</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>476</v>
@@ -15464,7 +15457,7 @@
       <c r="H156" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I156" s="21">
+      <c r="I156" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15472,8 +15465,8 @@
       <c r="A157" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B157" s="14" t="s">
-        <v>883</v>
+      <c r="B157" s="13" t="s">
+        <v>864</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>478</v>
@@ -15491,7 +15484,7 @@
       <c r="H157" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I157" s="21">
+      <c r="I157" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15499,8 +15492,8 @@
       <c r="A158" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B158" s="14" t="s">
-        <v>886</v>
+      <c r="B158" s="13" t="s">
+        <v>867</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>480</v>
@@ -15518,7 +15511,7 @@
       <c r="H158" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I158" s="21">
+      <c r="I158" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15526,8 +15519,8 @@
       <c r="A159" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B159" s="14" t="s">
-        <v>887</v>
+      <c r="B159" s="13" t="s">
+        <v>868</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>483</v>
@@ -15545,7 +15538,7 @@
       <c r="H159" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="I159" s="21">
+      <c r="I159" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15553,8 +15546,8 @@
       <c r="A160" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>888</v>
+      <c r="B160" s="13" t="s">
+        <v>869</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>485</v>
@@ -15572,7 +15565,7 @@
       <c r="H160" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I160" s="21">
+      <c r="I160" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15580,8 +15573,8 @@
       <c r="A161" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B161" s="14" t="s">
-        <v>889</v>
+      <c r="B161" s="13" t="s">
+        <v>870</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>487</v>
@@ -15599,7 +15592,7 @@
       <c r="H161" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I161" s="21">
+      <c r="I161" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15607,8 +15600,8 @@
       <c r="A162" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B162" s="14" t="s">
-        <v>890</v>
+      <c r="B162" s="13" t="s">
+        <v>871</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>489</v>
@@ -15626,7 +15619,7 @@
       <c r="H162" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="I162" s="21">
+      <c r="I162" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15634,8 +15627,8 @@
       <c r="A163" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B163" s="14" t="s">
-        <v>891</v>
+      <c r="B163" s="13" t="s">
+        <v>872</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>491</v>
@@ -15651,7 +15644,7 @@
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
-      <c r="I163" s="21">
+      <c r="I163" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15659,8 +15652,8 @@
       <c r="A164" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B164" s="14" t="s">
-        <v>892</v>
+      <c r="B164" s="13" t="s">
+        <v>873</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>494</v>
@@ -15676,7 +15669,7 @@
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
-      <c r="I164" s="21">
+      <c r="I164" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15684,8 +15677,8 @@
       <c r="A165" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B165" s="14" t="s">
-        <v>893</v>
+      <c r="B165" s="13" t="s">
+        <v>874</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>497</v>
@@ -15701,7 +15694,7 @@
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
-      <c r="I165" s="21">
+      <c r="I165" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15709,8 +15702,8 @@
       <c r="A166" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B166" s="14" t="s">
-        <v>894</v>
+      <c r="B166" s="13" t="s">
+        <v>875</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>500</v>
@@ -15726,7 +15719,7 @@
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
-      <c r="I166" s="21">
+      <c r="I166" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15734,8 +15727,8 @@
       <c r="A167" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B167" s="14" t="s">
-        <v>895</v>
+      <c r="B167" s="13" t="s">
+        <v>876</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>502</v>
@@ -15751,7 +15744,7 @@
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
-      <c r="I167" s="21">
+      <c r="I167" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15759,8 +15752,8 @@
       <c r="A168" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B168" s="14" t="s">
-        <v>896</v>
+      <c r="B168" s="13" t="s">
+        <v>877</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>504</v>
@@ -15776,7 +15769,7 @@
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
-      <c r="I168" s="21">
+      <c r="I168" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15784,8 +15777,8 @@
       <c r="A169" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B169" s="14" t="s">
-        <v>897</v>
+      <c r="B169" s="13" t="s">
+        <v>878</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>506</v>
@@ -15801,7 +15794,7 @@
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
-      <c r="I169" s="21">
+      <c r="I169" s="20">
         <v>43635</v>
       </c>
     </row>
@@ -15809,8 +15802,8 @@
       <c r="A170" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B170" s="14" t="s">
-        <v>898</v>
+      <c r="B170" s="13" t="s">
+        <v>879</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>508</v>
@@ -15826,107 +15819,107 @@
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
-      <c r="I170" s="21">
+      <c r="I170" s="20">
         <v>43635</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="s">
+    <row r="171" spans="1:9" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="B171" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D171" s="4" t="s">
+      <c r="B171" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="C171" s="39" t="s">
+        <v>887</v>
+      </c>
+      <c r="D171" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="21">
+      <c r="E171" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="F171" s="36" t="s">
+        <v>889</v>
+      </c>
+      <c r="G171" s="39"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="41">
         <v>43635</v>
       </c>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="20" t="s">
-        <v>544</v>
+      <c r="A172" s="19" t="s">
+        <v>540</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="21">
+      <c r="I172" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="20" t="s">
-        <v>547</v>
+      <c r="A173" s="19" t="s">
+        <v>543</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D173" s="24" t="s">
-        <v>561</v>
+        <v>544</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
-      <c r="I173" s="21">
+      <c r="I173" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="20" t="s">
-        <v>544</v>
+      <c r="A174" s="19" t="s">
+        <v>540</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="I174" s="21">
+        <v>548</v>
+      </c>
+      <c r="I174" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="20" t="s">
-        <v>544</v>
+      <c r="A175" s="19" t="s">
+        <v>540</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>43</v>
@@ -15935,1324 +15928,1324 @@
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
-      <c r="I175" s="21">
+      <c r="I175" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>775</v>
+      <c r="A176" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="B176" s="44" t="s">
+        <v>905</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="I176" s="21">
+        <v>552</v>
+      </c>
+      <c r="I176" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D177" s="10" t="s">
         <v>557</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>561</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="I177" s="20">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="42" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="D178" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="E178" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="I177" s="21">
+      <c r="F178" s="38" t="s">
+        <v>881</v>
+      </c>
+      <c r="G178" s="39"/>
+      <c r="H178" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="I178" s="41">
         <v>43640</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A178" s="35" t="s">
+    <row r="179" spans="1:9" s="42" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="B178" s="36" t="s">
-        <v>899</v>
-      </c>
-      <c r="C178" s="37" t="s">
-        <v>901</v>
-      </c>
-      <c r="D178" s="38" t="s">
+      <c r="B179" s="45" t="s">
+        <v>891</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>892</v>
+      </c>
+      <c r="D179" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="E178" s="38" t="s">
+      <c r="E179" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="F179" s="39" t="s">
         <v>564</v>
       </c>
-      <c r="F178" s="39" t="s">
-        <v>900</v>
-      </c>
-      <c r="G178" s="40"/>
-      <c r="H178" s="41" t="s">
+      <c r="G179" s="39"/>
+      <c r="H179" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="I178" s="42">
+      <c r="I179" s="41">
         <v>43640</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="20" t="s">
+    <row r="180" spans="1:9" s="42" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B180" s="45" t="s">
+        <v>895</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>894</v>
+      </c>
+      <c r="D180" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="E180" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="F180" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="G180" s="39"/>
+      <c r="H180" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="I180" s="41">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A181" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="B181" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="G179" s="6"/>
-      <c r="H179" s="4" t="s">
+      <c r="C181" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="I179" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A180" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I180" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E181" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>583</v>
+      <c r="E181" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="I181" s="21">
+        <v>575</v>
+      </c>
+      <c r="I181" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>586</v>
+    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A182" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>589</v>
+        <v>579</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>580</v>
       </c>
       <c r="G182" s="6">
         <v>0</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="I182" s="21">
+        <v>581</v>
+      </c>
+      <c r="I182" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>591</v>
+    <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A183" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>582</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E183" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>593</v>
+      <c r="E183" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>584</v>
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
-      <c r="I183" s="21">
+      <c r="I183" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="20" t="s">
+    <row r="184" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A184" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>594</v>
-      </c>
       <c r="C184" s="4" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>597</v>
+        <v>587</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>588</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
-      <c r="I184" s="21">
+      <c r="I184" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B185" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>600</v>
+        <v>589</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>591</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G185" s="6">
         <v>0</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="I185" s="21">
+        <v>594</v>
+      </c>
+      <c r="I185" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B186" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>606</v>
+        <v>595</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>597</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G186" s="6">
         <v>0</v>
       </c>
       <c r="H186" s="6"/>
-      <c r="I186" s="21">
+      <c r="I186" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B187" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>610</v>
+        <v>589</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>601</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G187" s="6">
         <v>0</v>
       </c>
       <c r="H187" s="6"/>
-      <c r="I187" s="21">
+      <c r="I187" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B188" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>615</v>
+        <v>604</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>606</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="G188" s="6">
         <v>0</v>
       </c>
       <c r="H188" s="6"/>
-      <c r="I188" s="21">
+      <c r="I188" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B189" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>619</v>
+        <v>595</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>610</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="G189" s="6">
         <v>0</v>
       </c>
       <c r="H189" s="6"/>
-      <c r="I189" s="21">
+      <c r="I189" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B190" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="B190" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>623</v>
+      <c r="C190" s="10" t="s">
+        <v>614</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="G190" s="6">
         <v>0</v>
       </c>
       <c r="H190" s="6"/>
-      <c r="I190" s="21">
+      <c r="I190" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B191" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>627</v>
+        <v>589</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>618</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="G191" s="6">
         <v>0</v>
       </c>
       <c r="H191" s="6"/>
-      <c r="I191" s="21">
+      <c r="I191" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>631</v>
+        <v>589</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>622</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="G192" s="6">
         <v>0</v>
       </c>
       <c r="H192" s="6"/>
-      <c r="I192" s="21">
+      <c r="I192" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B193" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>635</v>
+        <v>604</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G193" s="6">
         <v>0</v>
       </c>
       <c r="H193" s="6"/>
-      <c r="I193" s="21">
+      <c r="I193" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>639</v>
+        <v>589</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>630</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="G194" s="6">
         <v>0</v>
       </c>
       <c r="H194" s="6"/>
-      <c r="I194" s="21">
+      <c r="I194" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B195" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>643</v>
+        <v>595</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>634</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="G195" s="6">
         <v>0</v>
       </c>
       <c r="H195" s="6"/>
-      <c r="I195" s="21">
+      <c r="I195" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B196" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="C196" s="29" t="s">
-        <v>647</v>
+        <v>604</v>
+      </c>
+      <c r="B196" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="C196" s="28" t="s">
+        <v>638</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G196" s="6">
         <v>0</v>
       </c>
       <c r="H196" s="6"/>
-      <c r="I196" s="21">
+      <c r="I196" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B197" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="C197" s="29" t="s">
-        <v>650</v>
+        <v>595</v>
+      </c>
+      <c r="B197" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>641</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G197" s="6">
         <v>0</v>
       </c>
       <c r="H197" s="6"/>
-      <c r="I197" s="21">
+      <c r="I197" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B198" s="29" t="s">
-        <v>653</v>
-      </c>
-      <c r="C198" s="29" t="s">
-        <v>654</v>
+        <v>589</v>
+      </c>
+      <c r="B198" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>645</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="G198" s="6">
         <v>0</v>
       </c>
       <c r="H198" s="6"/>
-      <c r="I198" s="21">
+      <c r="I198" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="252" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B199" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="D199" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="D199" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E199" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="F199" s="15" t="s">
-        <v>777</v>
-      </c>
-      <c r="G199" s="27">
+      <c r="E199" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="G199" s="26">
         <v>0</v>
       </c>
-      <c r="H199" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="I199" s="21">
+      <c r="H199" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="I199" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="252" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B200" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="G200" s="26">
+        <v>0</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="I200" s="20">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="126" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="G201" s="11"/>
+      <c r="H201" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="I201" s="20">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="126" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B202" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="D200" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E200" s="15" t="s">
+      <c r="C202" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="F200" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="G200" s="27">
-        <v>0</v>
-      </c>
-      <c r="H200" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="I200" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+      <c r="D202" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="E202" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F202" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="G202" s="11"/>
+      <c r="H202" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="D201" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="E201" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="F201" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="G201" s="12"/>
-      <c r="H201" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="I201" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="F202" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="G202" s="12"/>
-      <c r="H202" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="I202" s="21">
+      <c r="I202" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="I203" s="21">
+        <v>670</v>
+      </c>
+      <c r="I203" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I204" s="21">
+        <v>677</v>
+      </c>
+      <c r="I204" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="G205" s="6"/>
       <c r="H205" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="I205" s="21">
+        <v>670</v>
+      </c>
+      <c r="I205" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D206" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E206" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E206" s="4" t="s">
-        <v>692</v>
-      </c>
       <c r="F206" s="4" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I206" s="21">
+        <v>677</v>
+      </c>
+      <c r="I206" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="G207" s="6"/>
       <c r="H207" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="I207" s="21">
+        <v>670</v>
+      </c>
+      <c r="I207" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I208" s="21">
+        <v>677</v>
+      </c>
+      <c r="I208" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="G209" s="6"/>
       <c r="H209" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I209" s="21">
+        <v>677</v>
+      </c>
+      <c r="I209" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="E210" s="18" t="s">
-        <v>708</v>
+        <v>674</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>699</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I210" s="21">
+        <v>677</v>
+      </c>
+      <c r="I210" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I211" s="21">
+        <v>677</v>
+      </c>
+      <c r="I211" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I212" s="21">
+        <v>677</v>
+      </c>
+      <c r="I212" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I213" s="21">
+        <v>677</v>
+      </c>
+      <c r="I213" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="I214" s="21">
+        <v>670</v>
+      </c>
+      <c r="I214" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G215" s="6">
         <v>0</v>
       </c>
       <c r="H215" s="4"/>
-      <c r="I215" s="21">
+      <c r="I215" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="E216" s="28" t="s">
-        <v>727</v>
+        <v>717</v>
+      </c>
+      <c r="E216" s="27" t="s">
+        <v>718</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="G216" s="6">
         <v>0</v>
       </c>
       <c r="H216" s="4"/>
-      <c r="I216" s="21">
+      <c r="I216" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="250" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B217" s="15" t="s">
-        <v>732</v>
-      </c>
-      <c r="C217" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="D217" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="E217" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="F217" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="G217" s="13">
+        <v>671</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="G217" s="12">
         <v>0</v>
       </c>
-      <c r="H217" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="I217" s="21">
+      <c r="H217" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="I217" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="191" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B218" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="D218" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="E218" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="F218" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="G218" s="12"/>
-      <c r="H218" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="I218" s="21">
+        <v>671</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E218" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="G218" s="11"/>
+      <c r="H218" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="I218" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="248" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="D219" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="E219" s="15" t="s">
-        <v>745</v>
-      </c>
-      <c r="F219" s="15" t="s">
-        <v>746</v>
-      </c>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="I219" s="21">
+        <v>671</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="I219" s="20">
         <v>43640</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="B220" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="B220" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="I220" s="20">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="B221" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="C221" s="36" t="s">
+        <v>896</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E221" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="F221" s="36" t="s">
+        <v>901</v>
+      </c>
+      <c r="G221" s="39"/>
+      <c r="H221" s="39"/>
+      <c r="I221" s="41">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="B222" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="C222" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="D222" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="E222" s="37" t="s">
+        <v>747</v>
+      </c>
+      <c r="F222" s="47" t="s">
         <v>748</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="G222" s="39"/>
+      <c r="H222" s="39"/>
+      <c r="I222" s="41">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="B223" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="C223" s="36" t="s">
+        <v>903</v>
+      </c>
+      <c r="D223" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E223" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="D220" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="E220" s="15" t="s">
+      <c r="F223" s="37" t="s">
         <v>750</v>
       </c>
-      <c r="F220" s="15" t="s">
+      <c r="G223" s="39"/>
+      <c r="H223" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12" t="s">
+      <c r="I223" s="41">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" s="42" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="B224" s="47" t="s">
+        <v>900</v>
+      </c>
+      <c r="C224" s="37" t="s">
         <v>752</v>
       </c>
-      <c r="I220" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+      <c r="D224" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E224" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="B221" s="17" t="s">
+      <c r="F224" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="G224" s="39"/>
+      <c r="H224" s="39" t="s">
         <v>754</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="G221" s="6"/>
-      <c r="H221" s="6"/>
-      <c r="I221" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="B222" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="F222" s="17" t="s">
-        <v>762</v>
-      </c>
-      <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
-      <c r="I222" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="B223" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="G223" s="6"/>
-      <c r="H223" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="I223" s="21">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="B224" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="G224" s="6"/>
-      <c r="H224" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="I224" s="21">
+      <c r="I224" s="41">
         <v>43640</v>
       </c>
     </row>
@@ -17260,11 +17253,8 @@
   <autoFilter ref="A1:I224">
     <filterColumn colId="0">
       <filters>
-        <filter val="01001"/>
-        <filter val="02001"/>
-        <filter val="05001"/>
-        <filter val="10001"/>
-        <filter val="11001"/>
+        <filter val="18001"/>
+        <filter val="f0002"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/湛泸一级清洗数据-20190624(1).xlsx
+++ b/docs/湛泸一级清洗数据-20190624(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39260" yWindow="-1420" windowWidth="25780" windowHeight="15260"/>
+    <workbookView xWindow="2080" yWindow="540" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="907">
   <si>
     <t>code</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -5160,10 +5160,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>per_bus_leg_entrevoke_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>联企核查_法人吊销企业个数</t>
   </si>
   <si>
@@ -5171,19 +5167,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>info_per_bus_legal.basic_id=info_per_bus_basic.id and (info_per_bus_legal.ent_status='吊销' or info_per_bus_legal.ent_status='吊销，未注销') and count info_per_bus_legal.id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为法人的企业状态为吊销的个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>18001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_bus_shh_entrevoke_cnt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5194,27 +5178,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>info_per_bus_shareholder.basic_id=info_per_bus_basic.id and (info_per_bus_shareholder.ent_status='吊销' or info_per_bus_shareholder.ent_status='吊销，未注销') and info_per_bus_shareholder.sub_conam/info_per_bus_shareholder.reg_cap&gt;=20% and count info_per_bus_shareholder.id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>作为股东(&gt;=20%)出资的企业状态为吊销的个数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>per_bus_leg_ent_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>联企核查_法人在营企业个数</t>
-  </si>
-  <si>
-    <t>info_per_bus_legal.basic_id=info_per_bus_basic.id and (info_per_bus_legal.ent_status='在营（开业）' or info_per_bus_legal.ent_status='存续（在营、开业、在册）') and count info_per_bus_legal.id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_bus_shh_ent_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>联企核查_股东在营企业个数</t>
@@ -5627,39 +5595,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>per_face_relent_indusCount1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联企照面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联企业的行业类别数量</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Numeric(2)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5669,114 +5604,6 @@
   </si>
   <si>
     <r>
-      <t>1. SELECT ent_name,credit_code FROM  info_per_bus_legal WHERE  ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在营（开业）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>” OR ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存续（在营、开业、在册）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>” ;                                                                 2. SELECT  ent_name,credit_code  FROM info_per_bus_shareholder  WHERE   (ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在营（开业）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>” OR ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存续（在营、开业、在册）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">” )  AND  funded_ratio &gt;= 0.2” ;                                                                                  3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两步筛选的企业去重，并逐一核查企业照面信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">;      4. per_face_relent_indusCount1 = SELECT  COUNT(DISTINCT industry_phy_code)  FROM  info_com_bus_face  WHERE  basic_id = '***' </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
@@ -5839,152 +5666,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>per_face_relent_indusCode1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联企照面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联企业的行业门类代码</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1. SELECT ent_name,credit_code FROM  info_per_bus_legal WHERE  ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在营（开业）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>” OR ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存续（在营、开业、在册）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>” ;                                                                 2. SELECT  ent_name,credit_code  FROM info_per_bus_shareholder  WHERE   (ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在营（开业）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>” OR ent_status = “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存续（在营、开业、在册）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">” )  AND  funded_ratio &gt;= 0.2” ;                                                                                  3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两步筛选的企业去重，并逐一核查企业照面信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">;                                                                                                      4. per_face_relent_indusCode1 =  SELECT  DISTINCT industry_phy_code  FROM  info_com_bus_face  WHERE  basic_id = '***' </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
@@ -6061,10 +5747,6 @@
       </rPr>
       <t>0003</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_com_case_info</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -10638,6 +10320,312 @@
         <scheme val="minor"/>
       </rPr>
       <t>ase_black</t>
+    </r>
+  </si>
+  <si>
+    <t>info_per_bus_legal.ent_status</t>
+  </si>
+  <si>
+    <t>per_bus_leg_entrevoke_cnt</t>
+  </si>
+  <si>
+    <t>per_bus_shh_entrevoke_cnt</t>
+  </si>
+  <si>
+    <t>per_bus_leg_ent_cnt</t>
+  </si>
+  <si>
+    <t>per_bus_shh_ent_cnt</t>
+  </si>
+  <si>
+    <t>info_per_bus_legal.basic_id=info_per_bus_basic.id and (info_per_bus_legal.ent_status='吊销' or info_per_bus_legal.ent_status='吊销，未注销') and count info_per_bus_legal.id</t>
+  </si>
+  <si>
+    <t>作为法人的企业状态为吊销的个数</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id=info_per_bus_basic.id and (info_per_bus_shareholder.ent_status='吊销' or info_per_bus_shareholder.ent_status='吊销，未注销') and info_per_bus_shareholder.sub_conam/info_per_bus_shareholder.reg_cap&gt;=20% and count info_per_bus_shareholder.id</t>
+  </si>
+  <si>
+    <t>info_per_bus_legal.basic_id=info_per_bus_basic.id and (info_per_bus_legal.ent_status='在营（开业）' or info_per_bus_legal.ent_status='存续（在营、开业、在册）') and count info_per_bus_legal.id</t>
+  </si>
+  <si>
+    <r>
+      <t>1. SELECT ent_name,credit_code FROM  info_per_bus_legal WHERE  ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在营（开业）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>” OR ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存续（在营、开业、在册）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>” ;                                                                 2. SELECT  ent_name,credit_code  FROM info_per_bus_shareholder  WHERE   (ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在营（开业）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>” OR ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存续（在营、开业、在册）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” )  AND  funded_ratio &gt;= 0.2” ;                                                                                  3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两步筛选的企业去重，并逐一核查企业照面信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">;                                                                                                      4. per_face_relent_indusCode1 =  SELECT  DISTINCT industry_phy_code  FROM  info_com_bus_face  WHERE  basic_id = '***' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. SELECT ent_name,credit_code FROM  info_per_bus_legal WHERE  ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在营（开业）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>” OR ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存续（在营、开业、在册）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>” ;                                                                 2. SELECT  ent_name,credit_code  FROM info_per_bus_shareholder  WHERE   (ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在营（开业）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>” OR ent_status = “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存续（在营、开业、在册）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” )  AND  funded_ratio &gt;= 0.2” ;                                                                                  3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两步筛选的企业去重，并逐一核查企业照面信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">;      4. per_face_relent_indusCount1 = SELECT  COUNT(DISTINCT industry_phy_code)  FROM  info_com_bus_face  WHERE  basic_id = '***' </t>
+    </r>
+  </si>
+  <si>
+    <t>per_face_relent_indusCount1</t>
+  </si>
+  <si>
+    <t>per_com_case_info</t>
+  </si>
+  <si>
+    <t>per_face_relent_indusCode1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联企照面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联企业的行业门类代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联企照面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联企业的行业类别数量</t>
     </r>
   </si>
 </sst>
@@ -10827,7 +10815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10970,6 +10958,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11257,8 +11254,8 @@
   <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201:XFD202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11583,19 +11580,19 @@
         <v>42</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="G12" s="39">
         <v>0</v>
@@ -11610,7 +11607,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>45</v>
@@ -11637,7 +11634,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>49</v>
@@ -11664,7 +11661,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>53</v>
@@ -11691,7 +11688,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>57</v>
@@ -11718,7 +11715,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>60</v>
@@ -11745,7 +11742,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>63</v>
@@ -11772,7 +11769,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>66</v>
@@ -11799,7 +11796,7 @@
         <v>69</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>70</v>
@@ -11824,7 +11821,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>74</v>
@@ -11851,7 +11848,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>77</v>
@@ -11878,7 +11875,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>80</v>
@@ -11905,7 +11902,7 @@
         <v>69</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>83</v>
@@ -11934,7 +11931,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>87</v>
@@ -11961,7 +11958,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>90</v>
@@ -11990,7 +11987,7 @@
         <v>69</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>94</v>
@@ -12017,7 +12014,7 @@
         <v>69</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>97</v>
@@ -12044,7 +12041,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>100</v>
@@ -12073,7 +12070,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>104</v>
@@ -12100,7 +12097,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>107</v>
@@ -12129,7 +12126,7 @@
         <v>69</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>111</v>
@@ -12156,7 +12153,7 @@
         <v>69</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>114</v>
@@ -12183,7 +12180,7 @@
         <v>69</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>117</v>
@@ -12212,7 +12209,7 @@
         <v>120</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>121</v>
@@ -12239,7 +12236,7 @@
         <v>120</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>125</v>
@@ -12266,7 +12263,7 @@
         <v>120</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>128</v>
@@ -12293,7 +12290,7 @@
         <v>120</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>131</v>
@@ -12320,7 +12317,7 @@
         <v>120</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>134</v>
@@ -12347,7 +12344,7 @@
         <v>120</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>138</v>
@@ -12374,7 +12371,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>142</v>
@@ -12401,7 +12398,7 @@
         <v>145</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>146</v>
@@ -12428,7 +12425,7 @@
         <v>145</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>151</v>
@@ -12455,7 +12452,7 @@
         <v>145</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>155</v>
@@ -12480,7 +12477,7 @@
         <v>145</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>159</v>
@@ -12505,7 +12502,7 @@
         <v>145</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>162</v>
@@ -12530,7 +12527,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>166</v>
@@ -12555,7 +12552,7 @@
         <v>145</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>170</v>
@@ -12580,7 +12577,7 @@
         <v>145</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>173</v>
@@ -12607,7 +12604,7 @@
         <v>145</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>176</v>
@@ -12634,7 +12631,7 @@
         <v>145</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>179</v>
@@ -13769,7 +13766,7 @@
         <v>327</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>328</v>
@@ -13796,7 +13793,7 @@
         <v>327</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>331</v>
@@ -13823,7 +13820,7 @@
         <v>327</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>334</v>
@@ -13850,7 +13847,7 @@
         <v>327</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>337</v>
@@ -13877,7 +13874,7 @@
         <v>327</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>341</v>
@@ -13904,7 +13901,7 @@
         <v>327</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>343</v>
@@ -13931,7 +13928,7 @@
         <v>327</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>345</v>
@@ -13958,7 +13955,7 @@
         <v>327</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>347</v>
@@ -13985,7 +13982,7 @@
         <v>327</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>349</v>
@@ -14012,7 +14009,7 @@
         <v>327</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>351</v>
@@ -14039,7 +14036,7 @@
         <v>327</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>353</v>
@@ -14066,7 +14063,7 @@
         <v>327</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>355</v>
@@ -14093,7 +14090,7 @@
         <v>327</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>357</v>
@@ -14120,7 +14117,7 @@
         <v>327</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>359</v>
@@ -14147,7 +14144,7 @@
         <v>327</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>361</v>
@@ -14174,7 +14171,7 @@
         <v>327</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>363</v>
@@ -14201,7 +14198,7 @@
         <v>327</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>365</v>
@@ -14228,7 +14225,7 @@
         <v>327</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>367</v>
@@ -14255,7 +14252,7 @@
         <v>327</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>370</v>
@@ -14282,7 +14279,7 @@
         <v>327</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>372</v>
@@ -14309,7 +14306,7 @@
         <v>327</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>374</v>
@@ -14336,7 +14333,7 @@
         <v>327</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>376</v>
@@ -14363,7 +14360,7 @@
         <v>327</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>378</v>
@@ -14390,7 +14387,7 @@
         <v>327</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>380</v>
@@ -14415,7 +14412,7 @@
         <v>327</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>382</v>
@@ -14440,7 +14437,7 @@
         <v>327</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>384</v>
@@ -14465,7 +14462,7 @@
         <v>327</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>386</v>
@@ -14490,7 +14487,7 @@
         <v>327</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>388</v>
@@ -14515,7 +14512,7 @@
         <v>327</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>390</v>
@@ -14540,7 +14537,7 @@
         <v>327</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>393</v>
@@ -14565,7 +14562,7 @@
         <v>327</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>395</v>
@@ -14590,7 +14587,7 @@
         <v>327</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>397</v>
@@ -14615,7 +14612,7 @@
         <v>327</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>399</v>
@@ -14640,7 +14637,7 @@
         <v>327</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>401</v>
@@ -14665,7 +14662,7 @@
         <v>327</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>403</v>
@@ -14690,7 +14687,7 @@
         <v>327</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>405</v>
@@ -14715,7 +14712,7 @@
         <v>327</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>407</v>
@@ -14740,7 +14737,7 @@
         <v>327</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>409</v>
@@ -14765,7 +14762,7 @@
         <v>327</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>411</v>
@@ -14790,7 +14787,7 @@
         <v>327</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>413</v>
@@ -14815,7 +14812,7 @@
         <v>327</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>415</v>
@@ -14840,7 +14837,7 @@
         <v>327</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>417</v>
@@ -14865,7 +14862,7 @@
         <v>327</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>419</v>
@@ -14890,7 +14887,7 @@
         <v>327</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>421</v>
@@ -14915,7 +14912,7 @@
         <v>327</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>423</v>
@@ -14940,7 +14937,7 @@
         <v>327</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>425</v>
@@ -14965,7 +14962,7 @@
         <v>327</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>427</v>
@@ -14990,7 +14987,7 @@
         <v>327</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>429</v>
@@ -15015,7 +15012,7 @@
         <v>327</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>431</v>
@@ -15040,7 +15037,7 @@
         <v>327</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>433</v>
@@ -15065,7 +15062,7 @@
         <v>327</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>435</v>
@@ -15090,7 +15087,7 @@
         <v>327</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>437</v>
@@ -15115,7 +15112,7 @@
         <v>327</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>439</v>
@@ -15142,7 +15139,7 @@
         <v>327</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>442</v>
@@ -15169,7 +15166,7 @@
         <v>327</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>444</v>
@@ -15196,7 +15193,7 @@
         <v>327</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>446</v>
@@ -15223,7 +15220,7 @@
         <v>327</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>448</v>
@@ -15250,7 +15247,7 @@
         <v>458</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>459</v>
@@ -15277,7 +15274,7 @@
         <v>458</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>463</v>
@@ -15304,7 +15301,7 @@
         <v>458</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>465</v>
@@ -15331,7 +15328,7 @@
         <v>458</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>467</v>
@@ -15358,7 +15355,7 @@
         <v>458</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>469</v>
@@ -15385,7 +15382,7 @@
         <v>458</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>471</v>
@@ -15412,7 +15409,7 @@
         <v>458</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>474</v>
@@ -15439,7 +15436,7 @@
         <v>458</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>476</v>
@@ -15466,7 +15463,7 @@
         <v>458</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>478</v>
@@ -15493,7 +15490,7 @@
         <v>458</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>480</v>
@@ -15520,7 +15517,7 @@
         <v>458</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>483</v>
@@ -15547,7 +15544,7 @@
         <v>458</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>485</v>
@@ -15574,7 +15571,7 @@
         <v>458</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>487</v>
@@ -15601,7 +15598,7 @@
         <v>458</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>489</v>
@@ -15628,7 +15625,7 @@
         <v>458</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>491</v>
@@ -15653,7 +15650,7 @@
         <v>458</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>494</v>
@@ -15678,7 +15675,7 @@
         <v>458</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>497</v>
@@ -15703,7 +15700,7 @@
         <v>458</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>500</v>
@@ -15728,7 +15725,7 @@
         <v>458</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>502</v>
@@ -15753,7 +15750,7 @@
         <v>458</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>504</v>
@@ -15778,7 +15775,7 @@
         <v>458</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>506</v>
@@ -15803,7 +15800,7 @@
         <v>458</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>508</v>
@@ -15828,19 +15825,19 @@
         <v>511</v>
       </c>
       <c r="B171" s="43" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="C171" s="39" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="D171" s="37" t="s">
         <v>71</v>
       </c>
       <c r="E171" s="36" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="F171" s="36" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="G171" s="39"/>
       <c r="H171" s="39"/>
@@ -15872,7 +15869,7 @@
         <v>543</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>544</v>
@@ -15937,7 +15934,7 @@
         <v>540</v>
       </c>
       <c r="B176" s="44" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>551</v>
@@ -15946,10 +15943,10 @@
         <v>547</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="4" t="s">
@@ -15987,10 +15984,10 @@
         <v>558</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C178" s="36" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="D178" s="37" t="s">
         <v>559</v>
@@ -15999,7 +15996,7 @@
         <v>560</v>
       </c>
       <c r="F178" s="38" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="G178" s="39"/>
       <c r="H178" s="40" t="s">
@@ -16014,16 +16011,16 @@
         <v>562</v>
       </c>
       <c r="B179" s="45" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D179" s="37" t="s">
         <v>563</v>
       </c>
       <c r="E179" s="36" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="F179" s="39" t="s">
         <v>564</v>
@@ -16041,10 +16038,10 @@
         <v>566</v>
       </c>
       <c r="B180" s="45" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="C180" s="36" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="D180" s="46" t="s">
         <v>557</v>
@@ -16063,138 +16060,138 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A181" s="19" t="s">
+    <row r="181" spans="1:9" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A181" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="48" t="s">
+        <v>892</v>
+      </c>
+      <c r="C181" s="36" t="s">
         <v>571</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="D181" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E181" s="47" t="s">
+        <v>891</v>
+      </c>
+      <c r="F181" s="48" t="s">
+        <v>896</v>
+      </c>
+      <c r="G181" s="39">
+        <v>0</v>
+      </c>
+      <c r="H181" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="I181" s="41">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A182" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="B182" s="48" t="s">
+        <v>893</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="D182" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E182" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="F182" s="48" t="s">
+        <v>898</v>
+      </c>
+      <c r="G182" s="39">
+        <v>0</v>
+      </c>
+      <c r="H182" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="I182" s="41">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A183" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="B183" s="48" t="s">
+        <v>894</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="D183" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E183" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="F183" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="G183" s="39"/>
+      <c r="H183" s="39"/>
+      <c r="I183" s="41">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A184" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="B184" s="48" t="s">
+        <v>895</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="D184" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E181" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="G181" s="6">
-        <v>0</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="I181" s="20">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A182" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E182" s="8" t="s">
+      <c r="E184" s="42" t="s">
         <v>579</v>
       </c>
-      <c r="F182" s="10" t="s">
+      <c r="F184" s="48" t="s">
         <v>580</v>
       </c>
-      <c r="G182" s="6">
-        <v>0</v>
-      </c>
-      <c r="H182" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="I182" s="20">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A183" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="F183" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="20">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A184" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="20">
+      <c r="G184" s="39"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="41">
         <v>43640</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G185" s="6">
         <v>0</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I185" s="20">
         <v>43640</v>
@@ -16202,22 +16199,22 @@
     </row>
     <row r="186" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G186" s="6">
         <v>0</v>
@@ -16229,22 +16226,22 @@
     </row>
     <row r="187" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="G187" s="6">
         <v>0</v>
@@ -16256,22 +16253,22 @@
     </row>
     <row r="188" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G188" s="6">
         <v>0</v>
@@ -16283,22 +16280,22 @@
     </row>
     <row r="189" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G189" s="6">
         <v>0</v>
@@ -16310,22 +16307,22 @@
     </row>
     <row r="190" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G190" s="6">
         <v>0</v>
@@ -16337,22 +16334,22 @@
     </row>
     <row r="191" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G191" s="6">
         <v>0</v>
@@ -16364,22 +16361,22 @@
     </row>
     <row r="192" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G192" s="6">
         <v>0</v>
@@ -16391,22 +16388,22 @@
     </row>
     <row r="193" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G193" s="6">
         <v>0</v>
@@ -16418,22 +16415,22 @@
     </row>
     <row r="194" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G194" s="6">
         <v>0</v>
@@ -16445,22 +16442,22 @@
     </row>
     <row r="195" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G195" s="6">
         <v>0</v>
@@ -16472,20 +16469,20 @@
     </row>
     <row r="196" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B196" s="28" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G196" s="6">
         <v>0</v>
@@ -16497,20 +16494,20 @@
     </row>
     <row r="197" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G197" s="6">
         <v>0</v>
@@ -16522,20 +16519,20 @@
     </row>
     <row r="198" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G198" s="6">
         <v>0</v>
@@ -16547,28 +16544,28 @@
     </row>
     <row r="199" spans="1:9" ht="252" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D199" s="14" t="s">
         <v>307</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G199" s="26">
         <v>0</v>
       </c>
       <c r="H199" s="14" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="I199" s="20">
         <v>43640</v>
@@ -16576,429 +16573,429 @@
     </row>
     <row r="200" spans="1:9" ht="252" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D200" s="14" t="s">
         <v>307</v>
       </c>
       <c r="E200" s="14" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="G200" s="26">
         <v>0</v>
       </c>
       <c r="H200" s="14" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="I200" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="126" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="D201" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="E201" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="G201" s="11"/>
-      <c r="H201" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="I201" s="20">
+    <row r="201" spans="1:9" s="42" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="A201" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B201" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="C201" s="49" t="s">
+        <v>906</v>
+      </c>
+      <c r="D201" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="E201" s="49" t="s">
+        <v>647</v>
+      </c>
+      <c r="F201" s="49" t="s">
+        <v>901</v>
+      </c>
+      <c r="G201" s="50"/>
+      <c r="H201" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="I201" s="41">
         <v>43640</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="126" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="C202" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="D202" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="E202" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="F202" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="G202" s="11"/>
-      <c r="H202" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="I202" s="20">
+    <row r="202" spans="1:9" s="42" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="A202" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B202" s="49" t="s">
+        <v>904</v>
+      </c>
+      <c r="C202" s="49" t="s">
+        <v>905</v>
+      </c>
+      <c r="D202" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="E202" s="49" t="s">
+        <v>647</v>
+      </c>
+      <c r="F202" s="49" t="s">
+        <v>900</v>
+      </c>
+      <c r="G202" s="50"/>
+      <c r="H202" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="I202" s="41">
         <v>43640</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>666</v>
+        <v>651</v>
+      </c>
+      <c r="B203" s="44" t="s">
+        <v>903</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="4" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="I203" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="285" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I204" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="G205" s="6"/>
       <c r="H205" s="4" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="I205" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I206" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>686</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="G207" s="6"/>
       <c r="H207" s="4" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="I207" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I208" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G209" s="6"/>
       <c r="H209" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I209" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I210" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I211" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I212" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I213" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="4" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="I214" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="G215" s="6">
         <v>0</v>
@@ -17008,24 +17005,24 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="G216" s="6">
         <v>0</v>
@@ -17035,111 +17032,111 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="250" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="250" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="D217" s="14" t="s">
         <v>514</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="G217" s="12">
         <v>0</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="I217" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="191" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="191" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="E218" s="14" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="G218" s="11"/>
       <c r="H218" s="18" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="I218" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="248" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="248" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D219" s="14" t="s">
         <v>514</v>
       </c>
       <c r="E219" s="14" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="G219" s="11"/>
       <c r="H219" s="11" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="I219" s="20">
         <v>43640</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="E220" s="14" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="G220" s="11"/>
       <c r="H220" s="11" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="I220" s="20">
         <v>43640</v>
@@ -17147,22 +17144,22 @@
     </row>
     <row r="221" spans="1:9" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="C221" s="36" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="D221" s="37" t="s">
         <v>71</v>
       </c>
       <c r="E221" s="36" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="F221" s="36" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="G221" s="39"/>
       <c r="H221" s="39"/>
@@ -17172,22 +17169,22 @@
     </row>
     <row r="222" spans="1:9" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B222" s="47" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="C222" s="36" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="D222" s="37" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E222" s="37" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F222" s="47" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="G222" s="39"/>
       <c r="H222" s="39"/>
@@ -17197,26 +17194,26 @@
     </row>
     <row r="223" spans="1:9" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="C223" s="36" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="D223" s="37" t="s">
         <v>71</v>
       </c>
       <c r="E223" s="37" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F223" s="37" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G223" s="39"/>
       <c r="H223" s="39" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="I223" s="41">
         <v>43640</v>
@@ -17224,26 +17221,26 @@
     </row>
     <row r="224" spans="1:9" s="42" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B224" s="47" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="C224" s="37" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="D224" s="37" t="s">
         <v>71</v>
       </c>
       <c r="E224" s="37" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F224" s="36" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="G224" s="39"/>
       <c r="H224" s="39" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="I224" s="41">
         <v>43640</v>
@@ -17255,6 +17252,7 @@
       <filters>
         <filter val="18001"/>
         <filter val="f0002"/>
+        <filter val="f0003"/>
       </filters>
     </filterColumn>
   </autoFilter>
